--- a/nodes_source_analyses/households/households_water_heater_hybrid_heatpump_air_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_water_heater_hybrid_heatpump_air_water_electricity.converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="19200" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="177">
   <si>
     <t>Source</t>
   </si>
@@ -308,9 +308,6 @@
   </si>
   <si>
     <t>input.electricity</t>
-  </si>
-  <si>
-    <t>output.useable_heat</t>
   </si>
   <si>
     <t>full_load_hours</t>
@@ -440,9 +437,6 @@
     <t>For now, input.network_gas is set to 0.3</t>
   </si>
   <si>
-    <t>For gas part</t>
-  </si>
-  <si>
     <t>Based on HR-107 condensing boiler</t>
   </si>
   <si>
@@ -631,6 +625,48 @@
       <t xml:space="preserve">mmmissioning cost </t>
     </r>
   </si>
+  <si>
+    <t>output.useable_heat.ambient_heat</t>
+  </si>
+  <si>
+    <t>output.useable_heat.electricity</t>
+  </si>
+  <si>
+    <r>
+      <t>output.useable_heat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.network_gas</t>
+    </r>
+  </si>
+  <si>
+    <t>output.useable_heat.network_gas</t>
+  </si>
+  <si>
+    <t>For water heater higher share of gas part</t>
+  </si>
+  <si>
+    <t>output of useable heat share from gas part</t>
+  </si>
+  <si>
+    <t>Efficiency for gas part</t>
+  </si>
+  <si>
+    <t>To find the input share of network gas,</t>
+  </si>
+  <si>
+    <t>we divide the output share by the efficiency</t>
+  </si>
+  <si>
+    <t>Efficiency of HP part</t>
+  </si>
 </sst>
 </file>
 
@@ -643,12 +679,19 @@
     <numFmt numFmtId="167" formatCode="0.000000000"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1165,605 +1208,618 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="320">
+  <cellStyleXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="320">
+  <cellStyles count="329">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1994,6 +2050,15 @@
     <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2851,7 +2916,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3002,10 +3067,10 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1048575" sqref="I1048575"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3030,28 +3095,28 @@
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="166"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="170"/>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="167"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="169"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="170"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="172"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="176"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
     </row>
@@ -3124,13 +3189,13 @@
       </c>
       <c r="E10" s="162">
         <f>'Research data'!G6</f>
-        <v>0.46666666666666667</v>
+        <v>0.44444444444444453</v>
       </c>
       <c r="F10" s="120"/>
       <c r="G10" s="120"/>
       <c r="H10" s="26"/>
       <c r="I10" s="155" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J10" s="40"/>
     </row>
@@ -3145,13 +3210,13 @@
       </c>
       <c r="E11" s="162">
         <f>'Research data'!G7</f>
-        <v>0.23333333333333331</v>
+        <v>0.22222222222222224</v>
       </c>
       <c r="F11" s="120"/>
       <c r="G11" s="120"/>
       <c r="H11" s="26"/>
       <c r="I11" s="155" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="39"/>
@@ -3160,20 +3225,20 @@
       <c r="A12" s="39"/>
       <c r="B12" s="19"/>
       <c r="C12" s="134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="162">
         <f>'Research data'!G8</f>
-        <v>0.3</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F12" s="120"/>
       <c r="G12" s="120"/>
       <c r="H12" s="26"/>
       <c r="I12" s="155" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="39"/>
@@ -3181,74 +3246,74 @@
     <row r="13" spans="1:11" ht="19" thickBot="1">
       <c r="A13" s="39"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="120" t="s">
-        <v>89</v>
+      <c r="C13" s="164" t="s">
+        <v>167</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="121">
         <f>'Research data'!G9</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F13" s="120"/>
       <c r="G13" s="120"/>
       <c r="H13" s="26"/>
       <c r="I13" s="155" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
-      <c r="A14" s="122"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="18" t="s">
+    <row r="14" spans="1:11" ht="19" thickBot="1">
+      <c r="A14" s="39"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="164" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="121">
         <f>'Research data'!G10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="120"/>
       <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="155" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J14" s="124"/>
       <c r="K14" s="125"/>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
-      <c r="A15" s="122"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="120" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="18" t="s">
+    <row r="15" spans="1:11" ht="19" thickBot="1">
+      <c r="A15" s="39"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="164" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="121">
         <f>'Research data'!G11</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F15" s="120"/>
       <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="155" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J15" s="124"/>
       <c r="K15" s="125"/>
     </row>
     <row r="16" spans="1:11" ht="16" thickBot="1">
       <c r="A16" s="122"/>
-      <c r="B16" s="35"/>
+      <c r="B16" s="123"/>
       <c r="C16" s="120" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>4</v>
@@ -3261,38 +3326,38 @@
       <c r="G16" s="120"/>
       <c r="H16" s="120"/>
       <c r="I16" s="155" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="J16" s="124"/>
       <c r="K16" s="125"/>
     </row>
     <row r="17" spans="1:11" ht="16" thickBot="1">
       <c r="A17" s="122"/>
-      <c r="B17" s="35"/>
+      <c r="B17" s="123"/>
       <c r="C17" s="120" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="121">
         <f>'Research data'!G13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="120"/>
       <c r="G17" s="120"/>
       <c r="H17" s="120"/>
       <c r="I17" s="155" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="J17" s="124"/>
       <c r="K17" s="125"/>
     </row>
     <row r="18" spans="1:11" ht="19" thickBot="1">
-      <c r="A18" s="39"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="35"/>
-      <c r="C18" s="31" t="s">
-        <v>34</v>
+      <c r="C18" s="120" t="s">
+        <v>89</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>4</v>
@@ -3301,55 +3366,55 @@
         <f>'Research data'!G14</f>
         <v>0</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
       <c r="I18" s="155" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J18" s="100"/>
       <c r="K18" s="39"/>
     </row>
     <row r="19" spans="1:11" ht="16" thickBot="1">
+      <c r="A19" s="122"/>
       <c r="B19" s="35"/>
-      <c r="C19" s="31" t="s">
-        <v>35</v>
+      <c r="C19" s="120" t="s">
+        <v>8</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="121">
         <f>'Research data'!G15</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
       <c r="I19" s="155" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="J19" s="100"/>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1">
+    <row r="20" spans="1:11" ht="19" thickBot="1">
+      <c r="A20" s="39"/>
       <c r="B20" s="35"/>
-      <c r="C20" s="161" t="s">
-        <v>150</v>
+      <c r="C20" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="E20" s="121">
         <f>'Research data'!G16</f>
         <v>0</v>
       </c>
       <c r="F20" s="31"/>
-      <c r="G20" s="145" t="s">
-        <v>151</v>
-      </c>
+      <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="155" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J20" s="100"/>
       <c r="K20" s="30"/>
@@ -3357,70 +3422,66 @@
     <row r="21" spans="1:11" ht="16" thickBot="1">
       <c r="B21" s="35"/>
       <c r="C21" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="140">
+        <v>4</v>
+      </c>
+      <c r="E21" s="121">
         <f>'Research data'!G17</f>
-        <v>4.9000000000000007E-3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="31"/>
-      <c r="G21" s="31" t="s">
-        <v>48</v>
-      </c>
+      <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="155" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="J21" s="100"/>
       <c r="K21" s="122"/>
     </row>
     <row r="22" spans="1:11" ht="16" thickBot="1">
-      <c r="A22" s="122"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="120" t="s">
-        <v>91</v>
+      <c r="B22" s="35"/>
+      <c r="C22" s="161" t="s">
+        <v>148</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="E22" s="121">
         <f>'Research data'!G18</f>
         <v>0</v>
       </c>
-      <c r="F22" s="120"/>
-      <c r="G22" s="126" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="120"/>
-      <c r="I22" s="156" t="s">
-        <v>164</v>
+      <c r="F22" s="31"/>
+      <c r="G22" s="145" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="155" t="s">
+        <v>155</v>
       </c>
       <c r="J22" s="124"/>
       <c r="K22" s="122"/>
     </row>
     <row r="23" spans="1:11" ht="16" thickBot="1">
-      <c r="A23" s="122"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="120" t="s">
-        <v>93</v>
+      <c r="B23" s="35"/>
+      <c r="C23" s="31" t="s">
+        <v>36</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="121">
+        <v>59</v>
+      </c>
+      <c r="E23" s="140">
         <f>'Research data'!G19</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="120"/>
-      <c r="G23" s="126" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="120"/>
-      <c r="I23" s="157" t="s">
-        <v>164</v>
+        <v>4.9000000000000007E-3</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="155" t="s">
+        <v>126</v>
       </c>
       <c r="J23" s="124"/>
       <c r="K23" s="122"/>
@@ -3429,22 +3490,22 @@
       <c r="A24" s="122"/>
       <c r="B24" s="123"/>
       <c r="C24" s="120" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="121">
         <f>'Research data'!G20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="120"/>
       <c r="G24" s="126" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H24" s="120"/>
       <c r="I24" s="156" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J24" s="124"/>
       <c r="K24" s="122"/>
@@ -3453,121 +3514,123 @@
       <c r="A25" s="122"/>
       <c r="B25" s="123"/>
       <c r="C25" s="120" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="121">
         <f>'Research data'!G21</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="120"/>
       <c r="G25" s="126" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H25" s="120"/>
       <c r="I25" s="157" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J25" s="124"/>
       <c r="K25" s="30"/>
     </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="35"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+    <row r="26" spans="1:11" ht="16" thickBot="1">
+      <c r="A26" s="122"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="121">
+        <f>'Research data'!G22</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="120"/>
+      <c r="G26" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="120"/>
+      <c r="I26" s="156" t="s">
+        <v>162</v>
+      </c>
       <c r="J26" s="100"/>
       <c r="K26" s="30"/>
     </row>
     <row r="27" spans="1:11" ht="16" thickBot="1">
-      <c r="B27" s="35"/>
-      <c r="C27" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="121">
+        <f>'Research data'!G23</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="120"/>
+      <c r="G27" s="126" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="120"/>
+      <c r="I27" s="157" t="s">
+        <v>162</v>
+      </c>
       <c r="J27" s="100"/>
     </row>
-    <row r="28" spans="1:11" ht="16" thickBot="1">
+    <row r="28" spans="1:11">
       <c r="B28" s="35"/>
-      <c r="C28" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="121">
-        <f>'Research data'!G24</f>
-        <v>4135</v>
-      </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="155" t="s">
-        <v>165</v>
-      </c>
+      <c r="C28" s="77"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
       <c r="J28" s="100"/>
     </row>
     <row r="29" spans="1:11" ht="16" thickBot="1">
       <c r="B29" s="35"/>
-      <c r="C29" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="121">
-        <f>'Research data'!G25</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="155" t="s">
-        <v>157</v>
-      </c>
+      <c r="C29" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
       <c r="J29" s="100"/>
     </row>
     <row r="30" spans="1:11" ht="16" thickBot="1">
       <c r="B30" s="35"/>
       <c r="C30" s="31" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E30" s="121">
         <f>'Research data'!G26</f>
-        <v>600</v>
+        <v>4135</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="31" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H30" s="31"/>
       <c r="I30" s="155" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="J30" s="100"/>
     </row>
     <row r="31" spans="1:11" ht="16" thickBot="1">
       <c r="B31" s="35"/>
       <c r="C31" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>28</v>
@@ -3577,257 +3640,261 @@
         <v>0</v>
       </c>
       <c r="F31" s="31"/>
-      <c r="G31" s="160" t="s">
-        <v>168</v>
+      <c r="G31" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="H31" s="31"/>
       <c r="I31" s="155" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J31" s="100"/>
     </row>
     <row r="32" spans="1:11" ht="16" thickBot="1">
       <c r="B32" s="35"/>
       <c r="C32" s="31" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E32" s="121">
         <f>'Research data'!G28</f>
-        <v>252.89256198347107</v>
+        <v>600</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="31" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H32" s="31"/>
       <c r="I32" s="155" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="J32" s="100"/>
     </row>
     <row r="33" spans="2:10" ht="16" thickBot="1">
       <c r="B33" s="35"/>
       <c r="C33" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E33" s="121">
         <f>'Research data'!G29</f>
         <v>0</v>
       </c>
       <c r="F33" s="31"/>
-      <c r="G33" s="31" t="s">
-        <v>51</v>
+      <c r="G33" s="160" t="s">
+        <v>166</v>
       </c>
       <c r="H33" s="31"/>
-      <c r="I33" s="158" t="s">
-        <v>156</v>
+      <c r="I33" s="155" t="s">
+        <v>155</v>
       </c>
       <c r="J33" s="100"/>
     </row>
     <row r="34" spans="2:10" ht="16" thickBot="1">
       <c r="B34" s="35"/>
       <c r="C34" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="121">
         <f>'Research data'!G30</f>
-        <v>0</v>
+        <v>252.89256198347107</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H34" s="31"/>
-      <c r="I34" s="158" t="s">
-        <v>157</v>
+      <c r="I34" s="155" t="s">
+        <v>127</v>
       </c>
       <c r="J34" s="100"/>
     </row>
     <row r="35" spans="2:10" ht="16" thickBot="1">
       <c r="B35" s="35"/>
       <c r="C35" s="31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E35" s="121">
         <f>'Research data'!G31</f>
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F35" s="31"/>
       <c r="G35" s="31" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H35" s="31"/>
-      <c r="I35" s="156" t="s">
-        <v>164</v>
+      <c r="I35" s="158" t="s">
+        <v>154</v>
       </c>
       <c r="J35" s="100"/>
     </row>
     <row r="36" spans="2:10" ht="16" thickBot="1">
       <c r="B36" s="35"/>
       <c r="C36" s="31" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E36" s="121">
         <f>'Research data'!G32</f>
         <v>0</v>
       </c>
       <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
+      <c r="G36" s="31" t="s">
+        <v>52</v>
+      </c>
       <c r="H36" s="31"/>
-      <c r="I36" s="157" t="s">
-        <v>11</v>
+      <c r="I36" s="158" t="s">
+        <v>155</v>
       </c>
       <c r="J36" s="100"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" ht="16" thickBot="1">
       <c r="B37" s="35"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="98"/>
+      <c r="C37" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="121">
+        <f>'Research data'!G33</f>
+        <v>0.04</v>
+      </c>
       <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
+      <c r="G37" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="H37" s="31"/>
-      <c r="I37" s="30"/>
+      <c r="I37" s="156" t="s">
+        <v>162</v>
+      </c>
       <c r="J37" s="100"/>
     </row>
     <row r="38" spans="2:10" ht="16" thickBot="1">
       <c r="B38" s="35"/>
-      <c r="C38" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="96"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
+      <c r="C38" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="121">
+        <f>'Research data'!G34</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="157" t="s">
+        <v>11</v>
+      </c>
       <c r="J38" s="100"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10">
       <c r="B39" s="35"/>
-      <c r="C39" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="121">
-        <f>'Research data'!G36</f>
-        <v>0</v>
-      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="98"/>
       <c r="F39" s="31"/>
-      <c r="G39" s="31" t="s">
-        <v>13</v>
-      </c>
+      <c r="G39" s="31"/>
       <c r="H39" s="31"/>
-      <c r="I39" s="155" t="s">
-        <v>157</v>
-      </c>
+      <c r="I39" s="30"/>
       <c r="J39" s="100"/>
     </row>
     <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B40" s="35"/>
-      <c r="C40" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="121">
-        <f>'Research data'!G37</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="31"/>
-      <c r="I40" s="159" t="s">
-        <v>157</v>
-      </c>
+      <c r="C40" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="96"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
       <c r="J40" s="100"/>
     </row>
     <row r="41" spans="2:10" ht="16" thickBot="1">
       <c r="B41" s="35"/>
       <c r="C41" s="31" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" s="121">
         <f>'Research data'!G38</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="31" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H41" s="31"/>
       <c r="I41" s="155" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="J41" s="100"/>
     </row>
     <row r="42" spans="2:10" ht="16" thickBot="1">
       <c r="B42" s="35"/>
       <c r="C42" s="31" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E42" s="121">
         <f>'Research data'!G39</f>
         <v>0</v>
       </c>
       <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
+      <c r="G42" s="31" t="s">
+        <v>24</v>
+      </c>
       <c r="H42" s="31"/>
-      <c r="I42" s="155" t="s">
-        <v>157</v>
+      <c r="I42" s="159" t="s">
+        <v>155</v>
       </c>
       <c r="J42" s="100"/>
     </row>
     <row r="43" spans="2:10" ht="16" thickBot="1">
       <c r="B43" s="35"/>
-      <c r="C43" s="41" t="s">
-        <v>54</v>
+      <c r="C43" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E43" s="121">
         <f>'Research data'!G40</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
+      <c r="G43" s="31" t="s">
+        <v>23</v>
+      </c>
       <c r="H43" s="31"/>
       <c r="I43" s="155" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J43" s="100"/>
     </row>
     <row r="44" spans="2:10" ht="16" thickBot="1">
       <c r="B44" s="35"/>
-      <c r="C44" s="41" t="s">
-        <v>55</v>
+      <c r="C44" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>4</v>
@@ -3840,54 +3907,54 @@
       <c r="G44" s="31"/>
       <c r="H44" s="31"/>
       <c r="I44" s="155" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="J44" s="100"/>
     </row>
     <row r="45" spans="2:10" ht="16" thickBot="1">
       <c r="B45" s="35"/>
       <c r="C45" s="41" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E45" s="121">
         <f>'Research data'!G42</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="31"/>
       <c r="H45" s="31"/>
-      <c r="I45" s="156" t="s">
-        <v>167</v>
+      <c r="I45" s="155" t="s">
+        <v>165</v>
       </c>
       <c r="J45" s="100"/>
     </row>
     <row r="46" spans="2:10" ht="16" thickBot="1">
       <c r="B46" s="35"/>
       <c r="C46" s="41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E46" s="121">
         <f>'Research data'!G43</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="31"/>
       <c r="H46" s="31"/>
-      <c r="I46" s="156" t="s">
-        <v>167</v>
+      <c r="I46" s="155" t="s">
+        <v>165</v>
       </c>
       <c r="J46" s="100"/>
     </row>
     <row r="47" spans="2:10" ht="16" thickBot="1">
       <c r="B47" s="35"/>
       <c r="C47" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>4</v>
@@ -3900,20 +3967,58 @@
       <c r="G47" s="31"/>
       <c r="H47" s="31"/>
       <c r="I47" s="156" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J47" s="100"/>
     </row>
     <row r="48" spans="2:10" ht="16" thickBot="1">
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="121">
+        <f>'Research data'!G45</f>
+        <v>2</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="156" t="s">
+        <v>165</v>
+      </c>
       <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="2:9" ht="16" thickBot="1">
+      <c r="B49" s="35"/>
+      <c r="C49" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="121">
+        <f>'Research data'!G46</f>
+        <v>11.5</v>
+      </c>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="156" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="16" thickBot="1">
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3966,10 +4071,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3994,12 +4099,12 @@
     <col min="18" max="16384" width="10.625" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" thickBot="1">
+    <row r="1" spans="2:17" ht="16" thickBot="1">
       <c r="N1" s="146"/>
       <c r="O1" s="146"/>
       <c r="P1" s="67"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="2:17">
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -4017,7 +4122,7 @@
       <c r="P2" s="70"/>
       <c r="Q2" s="69"/>
     </row>
-    <row r="3" spans="1:17" s="20" customFormat="1">
+    <row r="3" spans="2:17" s="20" customFormat="1">
       <c r="B3" s="19"/>
       <c r="C3" s="103" t="s">
         <v>79</v>
@@ -4032,26 +4137,26 @@
       </c>
       <c r="H3" s="103"/>
       <c r="I3" s="62" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J3" s="61"/>
       <c r="K3" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L3" s="61"/>
       <c r="M3" s="61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N3" s="61"/>
       <c r="O3" s="61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P3" s="61"/>
       <c r="Q3" s="103" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="2:17">
       <c r="B4" s="71"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -4069,7 +4174,7 @@
       <c r="P4" s="102"/>
       <c r="Q4" s="113"/>
     </row>
-    <row r="5" spans="1:17" ht="16" thickBot="1">
+    <row r="5" spans="2:17" ht="16" thickBot="1">
       <c r="B5" s="71"/>
       <c r="C5" s="28" t="s">
         <v>78</v>
@@ -4089,7 +4194,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="65"/>
     </row>
-    <row r="6" spans="1:17" ht="16" thickBot="1">
+    <row r="6" spans="2:17" ht="16" thickBot="1">
       <c r="B6" s="71"/>
       <c r="C6" s="120" t="s">
         <v>87</v>
@@ -4101,12 +4206,12 @@
       </c>
       <c r="G6" s="141">
         <f>I6</f>
-        <v>0.46666666666666667</v>
+        <v>0.44444444444444453</v>
       </c>
       <c r="H6" s="142"/>
       <c r="I6" s="141">
-        <f>Notes!E39</f>
-        <v>0.46666666666666667</v>
+        <f>Notes!E92</f>
+        <v>0.44444444444444453</v>
       </c>
       <c r="J6" s="74"/>
       <c r="K6" s="74"/>
@@ -4116,10 +4221,10 @@
       <c r="O6" s="148"/>
       <c r="P6" s="74"/>
       <c r="Q6" s="145" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16" thickBot="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="16" thickBot="1">
       <c r="B7" s="71"/>
       <c r="C7" s="120" t="s">
         <v>88</v>
@@ -4131,12 +4236,12 @@
       </c>
       <c r="G7" s="141">
         <f t="shared" ref="G7" si="0">I7</f>
-        <v>0.23333333333333331</v>
+        <v>0.22222222222222224</v>
       </c>
       <c r="H7" s="143"/>
       <c r="I7" s="141">
-        <f>Notes!E40</f>
-        <v>0.23333333333333331</v>
+        <f>Notes!E93</f>
+        <v>0.22222222222222224</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -4146,13 +4251,13 @@
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="145" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16" thickBot="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="16" thickBot="1">
       <c r="B8" s="71"/>
       <c r="C8" s="134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -4161,12 +4266,12 @@
       </c>
       <c r="G8" s="141">
         <f>I8</f>
-        <v>0.3</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H8" s="143"/>
       <c r="I8" s="141">
-        <f>Notes!E36</f>
-        <v>0.3</v>
+        <f>Notes!E48</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -4176,98 +4281,102 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="145" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16" thickBot="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="16" thickBot="1">
       <c r="B9" s="71"/>
-      <c r="C9" s="120" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="C9" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="144">
+      <c r="G9" s="141">
         <f>I9</f>
-        <v>0.9</v>
-      </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="144">
-        <f>Notes!E58</f>
-        <v>0.9</v>
-      </c>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="149"/>
-      <c r="O9" s="149"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="153" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16" thickBot="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="143"/>
+      <c r="I9" s="141">
+        <f>Notes!E95</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="145"/>
+    </row>
+    <row r="10" spans="2:17" ht="16" thickBot="1">
       <c r="B10" s="71"/>
-      <c r="C10" s="120" t="s">
-        <v>29</v>
+      <c r="C10" s="126" t="s">
+        <v>168</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="112">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="149"/>
-      <c r="O10" s="149"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="153" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16" thickBot="1">
+      <c r="G10" s="141">
+        <f t="shared" ref="G10:G11" si="1">I10</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="143"/>
+      <c r="I10" s="141">
+        <f>Notes!E96</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="145"/>
+    </row>
+    <row r="11" spans="2:17" ht="16" thickBot="1">
       <c r="B11" s="71"/>
-      <c r="C11" s="120" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="18" t="s">
+      <c r="C11" s="126" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="112">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
+      <c r="G11" s="141">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="74"/>
+      <c r="I11" s="144">
+        <f>Notes!E38</f>
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="149"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="75"/>
       <c r="Q11" s="153" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16" thickBot="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="16" thickBot="1">
       <c r="B12" s="71"/>
       <c r="C12" s="120" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="18" t="s">
         <v>4</v>
       </c>
@@ -4275,291 +4384,302 @@
         <v>0</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="J12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="74"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="75"/>
       <c r="Q12" s="153" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="16" thickBot="1">
       <c r="B13" s="71"/>
       <c r="C13" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="134" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="16" thickBot="1">
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="153" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="16" thickBot="1">
       <c r="B14" s="71"/>
-      <c r="C14" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="C14" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="112">
         <v>0</v>
       </c>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="67"/>
+      <c r="H14" s="11"/>
+      <c r="J14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="74"/>
       <c r="Q14" s="153" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="31" t="s">
-        <v>35</v>
-      </c>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="16" thickBot="1">
+      <c r="B15" s="71"/>
+      <c r="C15" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="112">
-        <v>0</v>
-      </c>
-      <c r="N15" s="146"/>
-      <c r="O15" s="146"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="153" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="16" thickBot="1">
       <c r="B16" s="71"/>
-      <c r="C16" s="145" t="s">
-        <v>150</v>
+      <c r="C16" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="G16" s="112">
         <v>0</v>
       </c>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
       <c r="N16" s="146"/>
       <c r="O16" s="146"/>
       <c r="P16" s="67"/>
-      <c r="Q16" s="145" t="s">
-        <v>157</v>
+      <c r="Q16" s="153" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16" thickBot="1">
-      <c r="B17" s="71"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="138">
-        <f>M17</f>
-        <v>4.9000000000000007E-3</v>
-      </c>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="138">
-        <f>Notes!E88</f>
-        <v>4.9000000000000007E-3</v>
-      </c>
-      <c r="N17" s="150"/>
-      <c r="O17" s="150"/>
+        <v>4</v>
+      </c>
+      <c r="G17" s="112">
+        <v>0</v>
+      </c>
+      <c r="N17" s="146"/>
+      <c r="O17" s="146"/>
       <c r="P17" s="67"/>
-      <c r="Q17" s="145" t="s">
-        <v>158</v>
+      <c r="Q17" s="153" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16" thickBot="1">
       <c r="B18" s="71"/>
-      <c r="C18" s="120" t="s">
-        <v>91</v>
+      <c r="C18" s="145" t="s">
+        <v>148</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="G18" s="112">
         <v>0</v>
       </c>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
       <c r="N18" s="146"/>
       <c r="O18" s="146"/>
       <c r="P18" s="67"/>
-      <c r="Q18" s="154" t="s">
+      <c r="Q18" s="145" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16" thickBot="1">
       <c r="B19" s="71"/>
-      <c r="C19" s="120" t="s">
-        <v>93</v>
+      <c r="C19" s="31" t="s">
+        <v>36</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="112">
-        <v>0</v>
-      </c>
-      <c r="N19" s="146"/>
-      <c r="O19" s="146"/>
+        <v>59</v>
+      </c>
+      <c r="G19" s="138">
+        <f>M19</f>
+        <v>4.9000000000000007E-3</v>
+      </c>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="138">
+        <f>Notes!E88</f>
+        <v>4.9000000000000007E-3</v>
+      </c>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
       <c r="P19" s="67"/>
-      <c r="Q19" s="154" t="s">
-        <v>155</v>
+      <c r="Q19" s="145" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16" thickBot="1">
       <c r="B20" s="71"/>
       <c r="C20" s="120" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="146"/>
       <c r="O20" s="146"/>
       <c r="P20" s="67"/>
       <c r="Q20" s="154" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="16" thickBot="1">
       <c r="B21" s="71"/>
       <c r="C21" s="120" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="146"/>
       <c r="O21" s="146"/>
       <c r="P21" s="67"/>
       <c r="Q21" s="154" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16" thickBot="1">
       <c r="B22" s="71"/>
-      <c r="C22" s="76"/>
-      <c r="F22" s="77"/>
+      <c r="C22" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="112">
+        <v>1</v>
+      </c>
       <c r="N22" s="146"/>
       <c r="O22" s="146"/>
       <c r="P22" s="67"/>
-      <c r="Q22" s="116"/>
+      <c r="Q22" s="154" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="23" spans="1:17" ht="16" thickBot="1">
       <c r="B23" s="71"/>
-      <c r="C23" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="28"/>
+      <c r="C23" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="112">
+        <v>1</v>
+      </c>
       <c r="N23" s="146"/>
       <c r="O23" s="146"/>
       <c r="P23" s="67"/>
-      <c r="Q23" s="29"/>
-    </row>
-    <row r="24" spans="1:17" ht="16" thickBot="1">
+      <c r="Q23" s="154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="B24" s="71"/>
-      <c r="C24" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="112">
-        <f>K24</f>
-        <v>4135</v>
-      </c>
-      <c r="K24" s="118">
-        <f>Notes!E183</f>
-        <v>4135</v>
-      </c>
+      <c r="C24" s="76"/>
+      <c r="F24" s="77"/>
       <c r="N24" s="146"/>
       <c r="O24" s="146"/>
       <c r="P24" s="67"/>
-      <c r="Q24" s="145" t="s">
-        <v>161</v>
-      </c>
+      <c r="Q24" s="116"/>
     </row>
     <row r="25" spans="1:17" ht="16" thickBot="1">
-      <c r="A25" s="129"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="112">
-        <v>0</v>
-      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="28"/>
       <c r="N25" s="146"/>
       <c r="O25" s="146"/>
       <c r="P25" s="67"/>
-      <c r="Q25" s="126" t="s">
-        <v>157</v>
-      </c>
+      <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="1:17" ht="16" thickBot="1">
-      <c r="A26" s="131"/>
-      <c r="B26" s="132"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="31" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>28</v>
       </c>
       <c r="G26" s="112">
         <f>K26</f>
-        <v>600</v>
+        <v>4135</v>
       </c>
       <c r="K26" s="118">
-        <f>Notes!E172</f>
-        <v>600</v>
+        <f>Notes!E183</f>
+        <v>4135</v>
       </c>
       <c r="N26" s="146"/>
       <c r="O26" s="146"/>
       <c r="P26" s="67"/>
-      <c r="Q26" s="65"/>
+      <c r="Q26" s="145" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="27" spans="1:17" ht="16" thickBot="1">
-      <c r="A27" s="131"/>
-      <c r="B27" s="132"/>
+      <c r="A27" s="129"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>28</v>
@@ -4570,39 +4690,40 @@
       <c r="N27" s="146"/>
       <c r="O27" s="146"/>
       <c r="P27" s="67"/>
-      <c r="Q27" s="145" t="s">
-        <v>157</v>
+      <c r="Q27" s="126" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16" thickBot="1">
       <c r="A28" s="131"/>
       <c r="B28" s="132"/>
       <c r="C28" s="31" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G28" s="112">
-        <f>O28</f>
-        <v>252.89256198347107</v>
+        <f>K28</f>
+        <v>600</v>
+      </c>
+      <c r="K28" s="118">
+        <f>Notes!E172</f>
+        <v>600</v>
       </c>
       <c r="N28" s="146"/>
-      <c r="O28" s="151">
-        <f>Notes!E209</f>
-        <v>252.89256198347107</v>
-      </c>
+      <c r="O28" s="146"/>
       <c r="P28" s="67"/>
-      <c r="Q28" s="145"/>
+      <c r="Q28" s="65"/>
     </row>
     <row r="29" spans="1:17" ht="16" thickBot="1">
       <c r="A29" s="131"/>
       <c r="B29" s="132"/>
       <c r="C29" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G29" s="112">
         <v>0</v>
@@ -4611,55 +4732,57 @@
       <c r="O29" s="146"/>
       <c r="P29" s="67"/>
       <c r="Q29" s="145" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16" thickBot="1">
       <c r="A30" s="131"/>
       <c r="B30" s="132"/>
       <c r="C30" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G30" s="112">
-        <v>0</v>
+        <f>O30</f>
+        <v>252.89256198347107</v>
       </c>
       <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
+      <c r="O30" s="151">
+        <f>Notes!E209</f>
+        <v>252.89256198347107</v>
+      </c>
       <c r="P30" s="67"/>
-      <c r="Q30" s="145" t="s">
-        <v>157</v>
-      </c>
+      <c r="Q30" s="145"/>
     </row>
     <row r="31" spans="1:17" ht="16" thickBot="1">
       <c r="A31" s="131"/>
       <c r="B31" s="132"/>
       <c r="C31" s="31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="117">
-        <v>0.04</v>
+        <v>46</v>
+      </c>
+      <c r="G31" s="112">
+        <v>0</v>
       </c>
       <c r="N31" s="146"/>
       <c r="O31" s="146"/>
       <c r="P31" s="67"/>
-      <c r="Q31" s="154" t="s">
-        <v>155</v>
+      <c r="Q31" s="145" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16" thickBot="1">
       <c r="A32" s="131"/>
       <c r="B32" s="132"/>
       <c r="C32" s="31" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="G32" s="112">
         <v>0</v>
@@ -4668,103 +4791,103 @@
       <c r="O32" s="146"/>
       <c r="P32" s="67"/>
       <c r="Q32" s="145" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="16" thickBot="1">
       <c r="A33" s="131"/>
       <c r="B33" s="132"/>
-      <c r="C33" s="78"/>
+      <c r="C33" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="117">
+        <v>0.04</v>
+      </c>
       <c r="N33" s="146"/>
       <c r="O33" s="146"/>
       <c r="P33" s="67"/>
-      <c r="Q33" s="29"/>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="Q33" s="154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="16" thickBot="1">
       <c r="A34" s="131"/>
       <c r="B34" s="132"/>
-      <c r="C34" s="28"/>
+      <c r="C34" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="112">
+        <v>0</v>
+      </c>
       <c r="N34" s="146"/>
       <c r="O34" s="146"/>
       <c r="P34" s="67"/>
-      <c r="Q34" s="104"/>
-    </row>
-    <row r="35" spans="1:17" ht="16" thickBot="1">
+      <c r="Q34" s="145" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="131"/>
       <c r="B35" s="132"/>
-      <c r="C35" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="C35" s="78"/>
       <c r="N35" s="146"/>
       <c r="O35" s="146"/>
       <c r="P35" s="67"/>
-      <c r="Q35" s="65"/>
-    </row>
-    <row r="36" spans="1:17" ht="16" thickBot="1">
-      <c r="A36" s="129"/>
-      <c r="B36" s="130"/>
-      <c r="C36" s="126" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="112">
-        <v>0</v>
-      </c>
+      <c r="Q35" s="29"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="131"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="28"/>
       <c r="N36" s="146"/>
       <c r="O36" s="146"/>
       <c r="P36" s="67"/>
-      <c r="Q36" s="145" t="s">
-        <v>157</v>
-      </c>
+      <c r="Q36" s="104"/>
     </row>
     <row r="37" spans="1:17" ht="16" thickBot="1">
       <c r="A37" s="131"/>
       <c r="B37" s="132"/>
-      <c r="C37" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="112">
-        <v>0</v>
+      <c r="C37" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="N37" s="146"/>
       <c r="O37" s="146"/>
       <c r="P37" s="67"/>
-      <c r="Q37" s="145" t="s">
-        <v>157</v>
-      </c>
+      <c r="Q37" s="65"/>
     </row>
     <row r="38" spans="1:17" ht="16" thickBot="1">
-      <c r="A38" s="131"/>
-      <c r="B38" s="132"/>
+      <c r="A38" s="129"/>
+      <c r="B38" s="130"/>
       <c r="C38" s="126" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38" s="112">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N38" s="146"/>
       <c r="O38" s="146"/>
       <c r="P38" s="67"/>
-      <c r="Q38" s="154" t="s">
-        <v>159</v>
+      <c r="Q38" s="145" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="16" thickBot="1">
       <c r="A39" s="131"/>
       <c r="B39" s="132"/>
       <c r="C39" s="126" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G39" s="112">
         <v>0</v>
@@ -4773,84 +4896,86 @@
       <c r="O39" s="146"/>
       <c r="P39" s="67"/>
       <c r="Q39" s="145" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="16" thickBot="1">
       <c r="A40" s="131"/>
       <c r="B40" s="132"/>
       <c r="C40" s="126" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="G40" s="112">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N40" s="146"/>
       <c r="O40" s="146"/>
       <c r="P40" s="67"/>
-      <c r="Q40" s="153" t="s">
-        <v>160</v>
+      <c r="Q40" s="154" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16" thickBot="1">
       <c r="A41" s="131"/>
       <c r="B41" s="132"/>
       <c r="C41" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="G41" s="112">
         <v>0</v>
       </c>
       <c r="N41" s="146"/>
       <c r="O41" s="146"/>
       <c r="P41" s="67"/>
-      <c r="Q41" s="153" t="s">
-        <v>160</v>
+      <c r="Q41" s="145" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16" thickBot="1">
       <c r="A42" s="131"/>
       <c r="B42" s="132"/>
       <c r="C42" s="126" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F42" s="18"/>
-      <c r="G42" s="152">
-        <f>4.5+7</f>
-        <v>11.5</v>
+      <c r="G42" s="112">
+        <v>0</v>
       </c>
       <c r="N42" s="146"/>
       <c r="O42" s="146"/>
       <c r="P42" s="67"/>
       <c r="Q42" s="153" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16" thickBot="1">
       <c r="A43" s="131"/>
       <c r="B43" s="132"/>
       <c r="C43" s="126" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F43" s="18"/>
-      <c r="G43" s="152">
-        <f>1.5+0.5</f>
-        <v>2</v>
+      <c r="G43" s="112">
+        <v>0</v>
       </c>
       <c r="N43" s="146"/>
       <c r="O43" s="146"/>
       <c r="P43" s="67"/>
       <c r="Q43" s="153" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16" thickBot="1">
       <c r="A44" s="131"/>
       <c r="B44" s="132"/>
       <c r="C44" s="126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="152">
@@ -4861,27 +4986,63 @@
       <c r="O44" s="146"/>
       <c r="P44" s="67"/>
       <c r="Q44" s="153" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="16" thickBot="1">
       <c r="A45" s="131"/>
       <c r="B45" s="132"/>
+      <c r="C45" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="152">
+        <f>1.5+0.5</f>
+        <v>2</v>
+      </c>
       <c r="N45" s="146"/>
       <c r="O45" s="146"/>
       <c r="P45" s="67"/>
-      <c r="Q45" s="114"/>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="Q45" s="153" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="16" thickBot="1">
       <c r="A46" s="131"/>
       <c r="B46" s="132"/>
+      <c r="C46" s="126" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="18"/>
+      <c r="G46" s="152">
+        <f>4.5+7</f>
+        <v>11.5</v>
+      </c>
       <c r="N46" s="146"/>
       <c r="O46" s="146"/>
       <c r="P46" s="67"/>
+      <c r="Q46" s="153" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="131"/>
       <c r="B47" s="132"/>
+      <c r="N47" s="146"/>
+      <c r="O47" s="146"/>
+      <c r="P47" s="67"/>
+      <c r="Q47" s="114"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="131"/>
+      <c r="B48" s="132"/>
+      <c r="N48" s="146"/>
+      <c r="O48" s="146"/>
+      <c r="P48" s="67"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="131"/>
+      <c r="B49" s="132"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5013,35 +5174,35 @@
     <row r="8" spans="2:11">
       <c r="B8" s="47"/>
       <c r="C8" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="55"/>
       <c r="E8" s="50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F8" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="H8" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="51" t="s">
+      <c r="J8" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="63" t="s">
         <v>113</v>
-      </c>
-      <c r="J8" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="K8" s="63" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="47"/>
       <c r="C9" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="56"/>
       <c r="E9" s="50"/>
@@ -5079,29 +5240,29 @@
     <row r="12" spans="2:11">
       <c r="B12" s="47"/>
       <c r="C12" s="56" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D12" s="60"/>
       <c r="E12" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="H12" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="J12" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="I12" s="58" t="s">
+      <c r="K12" s="55" t="s">
         <v>144</v>
-      </c>
-      <c r="J12" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="K12" s="55" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -5122,25 +5283,25 @@
       </c>
       <c r="D14" s="60"/>
       <c r="E14" s="55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G14" s="58" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H14" s="58" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J14" s="58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K14" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -5160,25 +5321,25 @@
       <c r="C16" s="56"/>
       <c r="D16" s="60"/>
       <c r="E16" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G16" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="I16" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="J16" s="58" t="s">
-        <v>149</v>
-      </c>
       <c r="K16" s="55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5355,8 +5516,8 @@
   </sheetPr>
   <dimension ref="A2:J305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5559,7 +5720,9 @@
       <c r="D22" s="108"/>
       <c r="E22" s="108"/>
       <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
+      <c r="G22" s="137" t="s">
+        <v>118</v>
+      </c>
       <c r="H22" s="108"/>
       <c r="I22" s="108"/>
       <c r="J22" s="111"/>
@@ -5570,7 +5733,9 @@
       <c r="D23" s="108"/>
       <c r="E23" s="108"/>
       <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
+      <c r="G23" s="137" t="s">
+        <v>119</v>
+      </c>
       <c r="H23" s="108"/>
       <c r="I23" s="108"/>
       <c r="J23" s="111"/>
@@ -5581,7 +5746,9 @@
       <c r="D24" s="108"/>
       <c r="E24" s="108"/>
       <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
+      <c r="G24" s="137" t="s">
+        <v>120</v>
+      </c>
       <c r="H24" s="108"/>
       <c r="I24" s="108"/>
       <c r="J24" s="111"/>
@@ -5592,7 +5759,9 @@
       <c r="D25" s="108"/>
       <c r="E25" s="108"/>
       <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
+      <c r="G25" s="137" t="s">
+        <v>121</v>
+      </c>
       <c r="H25" s="108"/>
       <c r="I25" s="108"/>
       <c r="J25" s="111"/>
@@ -5603,7 +5772,7 @@
       <c r="D26" s="108"/>
       <c r="E26" s="108"/>
       <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
+      <c r="G26" s="137"/>
       <c r="H26" s="108"/>
       <c r="I26" s="108"/>
       <c r="J26" s="111"/>
@@ -5614,7 +5783,9 @@
       <c r="D27" s="108"/>
       <c r="E27" s="108"/>
       <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
+      <c r="G27" s="137" t="s">
+        <v>122</v>
+      </c>
       <c r="H27" s="108"/>
       <c r="I27" s="108"/>
       <c r="J27" s="111"/>
@@ -5625,7 +5796,9 @@
       <c r="D28" s="108"/>
       <c r="E28" s="108"/>
       <c r="F28" s="108"/>
-      <c r="G28" s="119"/>
+      <c r="G28" s="165" t="s">
+        <v>171</v>
+      </c>
       <c r="H28" s="108"/>
       <c r="I28" s="108"/>
       <c r="J28" s="111"/>
@@ -5636,7 +5809,6 @@
       <c r="D29" s="108"/>
       <c r="E29" s="108"/>
       <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
       <c r="H29" s="108"/>
       <c r="I29" s="108"/>
       <c r="J29" s="111"/>
@@ -5647,7 +5819,9 @@
       <c r="D30" s="108"/>
       <c r="E30" s="108"/>
       <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
+      <c r="G30" s="137" t="s">
+        <v>123</v>
+      </c>
       <c r="H30" s="108"/>
       <c r="I30" s="108"/>
       <c r="J30" s="111"/>
@@ -5709,8 +5883,8 @@
         <v>0.3</v>
       </c>
       <c r="F36" s="136"/>
-      <c r="G36" s="137" t="s">
-        <v>102</v>
+      <c r="G36" s="165" t="s">
+        <v>172</v>
       </c>
       <c r="H36" s="137"/>
       <c r="I36" s="137"/>
@@ -5730,12 +5904,12 @@
       <c r="B38" s="110"/>
       <c r="C38" s="137"/>
       <c r="D38" s="137"/>
-      <c r="E38" s="105">
-        <v>3</v>
-      </c>
-      <c r="F38" s="136"/>
-      <c r="G38" s="137" t="s">
-        <v>103</v>
+      <c r="E38" s="145">
+        <v>0.9</v>
+      </c>
+      <c r="F38" s="137"/>
+      <c r="G38" s="165" t="s">
+        <v>169</v>
       </c>
       <c r="H38" s="137"/>
       <c r="I38" s="137"/>
@@ -5745,13 +5919,10 @@
       <c r="B39" s="110"/>
       <c r="C39" s="137"/>
       <c r="D39" s="137"/>
-      <c r="E39" s="145">
-        <f>(1-E36)*(1-1/E38)</f>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="F39" s="136"/>
-      <c r="G39" s="137" t="s">
-        <v>87</v>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="165" t="s">
+        <v>173</v>
       </c>
       <c r="H39" s="137"/>
       <c r="I39" s="137"/>
@@ -5761,14 +5932,9 @@
       <c r="B40" s="110"/>
       <c r="C40" s="137"/>
       <c r="D40" s="137"/>
-      <c r="E40" s="145">
-        <f>(1-E36)/E38</f>
-        <v>0.23333333333333331</v>
-      </c>
-      <c r="F40" s="136"/>
-      <c r="G40" s="137" t="s">
-        <v>88</v>
-      </c>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="137"/>
       <c r="H40" s="137"/>
       <c r="I40" s="137"/>
       <c r="J40" s="111"/>
@@ -5779,7 +5945,9 @@
       <c r="D41" s="137"/>
       <c r="E41" s="137"/>
       <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
+      <c r="G41" s="137" t="s">
+        <v>124</v>
+      </c>
       <c r="H41" s="137"/>
       <c r="I41" s="137"/>
       <c r="J41" s="111"/>
@@ -5790,7 +5958,9 @@
       <c r="D42" s="137"/>
       <c r="E42" s="137"/>
       <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
+      <c r="G42" s="137" t="s">
+        <v>125</v>
+      </c>
       <c r="H42" s="137"/>
       <c r="I42" s="137"/>
       <c r="J42" s="111"/>
@@ -5812,8 +5982,8 @@
       <c r="D44" s="137"/>
       <c r="E44" s="137"/>
       <c r="F44" s="137"/>
-      <c r="G44" s="137" t="s">
-        <v>119</v>
+      <c r="G44" s="166" t="s">
+        <v>174</v>
       </c>
       <c r="H44" s="137"/>
       <c r="I44" s="137"/>
@@ -5825,8 +5995,8 @@
       <c r="D45" s="137"/>
       <c r="E45" s="137"/>
       <c r="F45" s="137"/>
-      <c r="G45" s="137" t="s">
-        <v>120</v>
+      <c r="G45" s="166" t="s">
+        <v>175</v>
       </c>
       <c r="H45" s="137"/>
       <c r="I45" s="137"/>
@@ -5838,9 +6008,7 @@
       <c r="D46" s="137"/>
       <c r="E46" s="137"/>
       <c r="F46" s="137"/>
-      <c r="G46" s="137" t="s">
-        <v>121</v>
-      </c>
+      <c r="G46" s="166"/>
       <c r="H46" s="137"/>
       <c r="I46" s="137"/>
       <c r="J46" s="111"/>
@@ -5851,9 +6019,7 @@
       <c r="D47" s="137"/>
       <c r="E47" s="137"/>
       <c r="F47" s="137"/>
-      <c r="G47" s="137" t="s">
-        <v>122</v>
-      </c>
+      <c r="G47" s="166"/>
       <c r="H47" s="137"/>
       <c r="I47" s="137"/>
       <c r="J47" s="111"/>
@@ -5862,9 +6028,14 @@
       <c r="B48" s="110"/>
       <c r="C48" s="137"/>
       <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
+      <c r="E48" s="137">
+        <f>E36/E38</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
+      <c r="G48" s="165" t="s">
+        <v>101</v>
+      </c>
       <c r="H48" s="137"/>
       <c r="I48" s="137"/>
       <c r="J48" s="111"/>
@@ -5875,9 +6046,6 @@
       <c r="D49" s="137"/>
       <c r="E49" s="137"/>
       <c r="F49" s="137"/>
-      <c r="G49" s="137" t="s">
-        <v>123</v>
-      </c>
       <c r="H49" s="137"/>
       <c r="I49" s="137"/>
       <c r="J49" s="111"/>
@@ -5888,7 +6056,6 @@
       <c r="D50" s="137"/>
       <c r="E50" s="137"/>
       <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
       <c r="H50" s="137"/>
       <c r="I50" s="137"/>
       <c r="J50" s="111"/>
@@ -5899,9 +6066,6 @@
       <c r="D51" s="137"/>
       <c r="E51" s="137"/>
       <c r="F51" s="137"/>
-      <c r="G51" s="137" t="s">
-        <v>124</v>
-      </c>
       <c r="H51" s="137"/>
       <c r="I51" s="137"/>
       <c r="J51" s="111"/>
@@ -5976,13 +6140,9 @@
       <c r="B58" s="110"/>
       <c r="C58" s="137"/>
       <c r="D58" s="137"/>
-      <c r="E58" s="145">
-        <v>0.9</v>
-      </c>
+      <c r="E58" s="145"/>
       <c r="F58" s="137"/>
-      <c r="G58" s="137" t="s">
-        <v>89</v>
-      </c>
+      <c r="G58" s="137"/>
       <c r="H58" s="137"/>
       <c r="I58" s="137"/>
       <c r="J58" s="111"/>
@@ -5993,9 +6153,7 @@
       <c r="D59" s="137"/>
       <c r="E59" s="137"/>
       <c r="F59" s="137"/>
-      <c r="G59" s="137" t="s">
-        <v>125</v>
-      </c>
+      <c r="G59" s="137"/>
       <c r="H59" s="137"/>
       <c r="I59" s="137"/>
       <c r="J59" s="111"/>
@@ -6017,9 +6175,7 @@
       <c r="D61" s="137"/>
       <c r="E61" s="137"/>
       <c r="F61" s="137"/>
-      <c r="G61" s="137" t="s">
-        <v>126</v>
-      </c>
+      <c r="G61" s="137"/>
       <c r="H61" s="137"/>
       <c r="I61" s="137"/>
       <c r="J61" s="111"/>
@@ -6030,9 +6186,7 @@
       <c r="D62" s="137"/>
       <c r="E62" s="137"/>
       <c r="F62" s="137"/>
-      <c r="G62" s="137" t="s">
-        <v>127</v>
-      </c>
+      <c r="G62" s="137"/>
       <c r="H62" s="137"/>
       <c r="I62" s="137"/>
       <c r="J62" s="111"/>
@@ -6074,9 +6228,6 @@
       <c r="B66" s="110"/>
       <c r="C66" s="137"/>
       <c r="D66" s="137"/>
-      <c r="E66" s="137"/>
-      <c r="F66" s="137"/>
-      <c r="G66" s="137"/>
       <c r="H66" s="137"/>
       <c r="I66" s="137"/>
       <c r="J66" s="111"/>
@@ -6085,9 +6236,6 @@
       <c r="B67" s="110"/>
       <c r="C67" s="137"/>
       <c r="D67" s="137"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="137"/>
-      <c r="G67" s="137"/>
       <c r="H67" s="137"/>
       <c r="I67" s="137"/>
       <c r="J67" s="111"/>
@@ -6096,9 +6244,6 @@
       <c r="B68" s="110"/>
       <c r="C68" s="137"/>
       <c r="D68" s="137"/>
-      <c r="E68" s="137"/>
-      <c r="F68" s="136"/>
-      <c r="G68" s="137"/>
       <c r="H68" s="137"/>
       <c r="I68" s="137"/>
       <c r="J68" s="111"/>
@@ -6260,7 +6405,7 @@
     <row r="83" spans="2:10">
       <c r="B83" s="110"/>
       <c r="C83" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D83" s="137"/>
       <c r="E83" s="137"/>
@@ -6311,7 +6456,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F87" s="137" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G87" s="136" t="s">
         <v>36</v>
@@ -6332,7 +6477,7 @@
         <v>59</v>
       </c>
       <c r="G88" s="137" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H88" s="137"/>
       <c r="I88" s="137"/>
@@ -6364,9 +6509,13 @@
       <c r="B91" s="110"/>
       <c r="C91" s="137"/>
       <c r="D91" s="137"/>
-      <c r="E91" s="137"/>
-      <c r="F91" s="137"/>
-      <c r="G91" s="137"/>
+      <c r="E91" s="105">
+        <v>3</v>
+      </c>
+      <c r="F91" s="136"/>
+      <c r="G91" s="137" t="s">
+        <v>102</v>
+      </c>
       <c r="H91" s="137"/>
       <c r="I91" s="137"/>
       <c r="J91" s="111"/>
@@ -6375,9 +6524,14 @@
       <c r="B92" s="110"/>
       <c r="C92" s="137"/>
       <c r="D92" s="137"/>
-      <c r="E92" s="137"/>
-      <c r="F92" s="137"/>
-      <c r="G92" s="137"/>
+      <c r="E92" s="145">
+        <f>(1-E48)*(1-1/E91)</f>
+        <v>0.44444444444444453</v>
+      </c>
+      <c r="F92" s="136"/>
+      <c r="G92" s="137" t="s">
+        <v>87</v>
+      </c>
       <c r="H92" s="137"/>
       <c r="I92" s="137"/>
       <c r="J92" s="111"/>
@@ -6386,9 +6540,14 @@
       <c r="B93" s="110"/>
       <c r="C93" s="137"/>
       <c r="D93" s="137"/>
-      <c r="E93" s="137"/>
-      <c r="F93" s="137"/>
-      <c r="G93" s="137"/>
+      <c r="E93" s="145">
+        <f>(1-E48)/E91</f>
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="F93" s="136"/>
+      <c r="G93" s="137" t="s">
+        <v>88</v>
+      </c>
       <c r="H93" s="137"/>
       <c r="I93" s="137"/>
       <c r="J93" s="111"/>
@@ -6397,9 +6556,6 @@
       <c r="B94" s="110"/>
       <c r="C94" s="137"/>
       <c r="D94"/>
-      <c r="E94" s="137"/>
-      <c r="F94" s="137"/>
-      <c r="G94" s="137"/>
       <c r="H94" s="137"/>
       <c r="I94" s="137"/>
       <c r="J94" s="111"/>
@@ -6408,20 +6564,28 @@
       <c r="B95" s="110"/>
       <c r="C95" s="137"/>
       <c r="D95" s="137"/>
-      <c r="E95" s="137"/>
-      <c r="F95" s="137"/>
-      <c r="G95" s="137"/>
+      <c r="E95" s="167">
+        <v>1</v>
+      </c>
+      <c r="F95" s="165"/>
+      <c r="G95" s="165" t="s">
+        <v>167</v>
+      </c>
       <c r="H95" s="137"/>
       <c r="I95" s="137"/>
       <c r="J95" s="111"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" ht="16">
       <c r="B96" s="110"/>
       <c r="C96" s="137"/>
       <c r="D96" s="137"/>
-      <c r="E96" s="137"/>
-      <c r="F96" s="137"/>
-      <c r="G96" s="137"/>
+      <c r="E96" s="167">
+        <v>1</v>
+      </c>
+      <c r="F96"/>
+      <c r="G96" s="165" t="s">
+        <v>168</v>
+      </c>
       <c r="H96" s="137"/>
       <c r="I96" s="137"/>
       <c r="J96" s="111"/>
@@ -6430,20 +6594,22 @@
       <c r="B97" s="110"/>
       <c r="C97" s="137"/>
       <c r="D97" s="137"/>
-      <c r="E97" s="137"/>
-      <c r="F97" s="137"/>
-      <c r="G97" s="137"/>
+      <c r="E97" s="165"/>
+      <c r="F97" s="165"/>
+      <c r="G97" s="165"/>
       <c r="H97" s="137"/>
       <c r="I97" s="137"/>
       <c r="J97" s="111"/>
     </row>
-    <row r="98" spans="2:10" ht="16">
+    <row r="98" spans="2:10">
       <c r="B98" s="110"/>
       <c r="C98" s="137"/>
       <c r="D98" s="137"/>
-      <c r="E98" s="137"/>
-      <c r="F98"/>
-      <c r="G98" s="137"/>
+      <c r="E98" s="165"/>
+      <c r="F98" s="165"/>
+      <c r="G98" s="165" t="s">
+        <v>176</v>
+      </c>
       <c r="H98" s="137"/>
       <c r="I98" s="137"/>
       <c r="J98" s="111"/>
@@ -7109,7 +7275,7 @@
     <row r="161" spans="1:9">
       <c r="B161" s="110"/>
       <c r="C161" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D161" s="136"/>
       <c r="E161" s="136"/>
@@ -7205,7 +7371,7 @@
         <v>28</v>
       </c>
       <c r="G169" s="136" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H169" s="136"/>
       <c r="I169" s="136"/>
@@ -7218,7 +7384,7 @@
       <c r="E170" s="136"/>
       <c r="F170" s="136"/>
       <c r="G170" s="136" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H170" s="136"/>
       <c r="I170" s="136"/>
@@ -7246,7 +7412,7 @@
         <v>28</v>
       </c>
       <c r="G172" s="136" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H172" s="136"/>
       <c r="I172" s="136"/>
@@ -7318,11 +7484,11 @@
         <v>28</v>
       </c>
       <c r="G178" s="136" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H178" s="136"/>
       <c r="I178" s="136" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -7333,7 +7499,7 @@
       <c r="E179" s="136"/>
       <c r="F179" s="136"/>
       <c r="G179" s="136" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H179" s="136"/>
       <c r="I179" s="136"/>
@@ -7384,7 +7550,7 @@
         <v>28</v>
       </c>
       <c r="G183" s="136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H183" s="136"/>
       <c r="I183" s="136"/>
@@ -7437,7 +7603,7 @@
       <c r="A188" s="131"/>
       <c r="B188" s="132"/>
       <c r="C188" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D188" s="136"/>
       <c r="E188" s="137"/>
@@ -7532,10 +7698,10 @@
         <v>117</v>
       </c>
       <c r="F196" s="136" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G196" s="136" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H196" s="136"/>
       <c r="I196" s="136"/>
@@ -7548,7 +7714,7 @@
       <c r="E197" s="136"/>
       <c r="F197" s="136"/>
       <c r="G197" s="136" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H197" s="136"/>
       <c r="I197" s="136"/>
@@ -7563,10 +7729,10 @@
         <v>96.694214876033058</v>
       </c>
       <c r="F198" s="136" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G198" s="136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H198" s="136"/>
       <c r="I198" s="136"/>
@@ -7579,7 +7745,7 @@
       <c r="E199" s="136"/>
       <c r="F199" s="136"/>
       <c r="G199" s="136" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H199" s="136"/>
       <c r="I199" s="136"/>
@@ -7604,10 +7770,10 @@
         <v>189</v>
       </c>
       <c r="F201" s="136" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G201" s="136" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H201" s="136"/>
       <c r="I201" s="136"/>
@@ -7620,7 +7786,7 @@
       <c r="E202" s="136"/>
       <c r="F202" s="136"/>
       <c r="G202" s="136" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H202" s="136"/>
       <c r="I202" s="136"/>
@@ -7646,10 +7812,10 @@
         <v>156.19834710743802</v>
       </c>
       <c r="F204" s="136" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G204" s="136" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H204" s="136"/>
       <c r="I204" s="136"/>
@@ -7662,7 +7828,7 @@
       <c r="E205" s="136"/>
       <c r="F205" s="136"/>
       <c r="G205" s="136" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H205" s="136"/>
       <c r="I205" s="136"/>
@@ -7710,10 +7876,10 @@
         <v>252.89256198347107</v>
       </c>
       <c r="F209" s="136" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G209" s="136" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H209" s="136"/>
       <c r="I209" s="136"/>
@@ -7726,7 +7892,7 @@
       <c r="E210" s="136"/>
       <c r="F210" s="136"/>
       <c r="G210" s="136" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H210" s="136"/>
       <c r="I210" s="136"/>

--- a/nodes_source_analyses/households/households_water_heater_hybrid_heatpump_air_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_water_heater_hybrid_heatpump_air_water_electricity.converter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="8580" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -800,6 +797,10 @@
   <si>
     <t>Do not use electric part of HHP for hot water</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -813,7 +814,7 @@
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -980,11 +981,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1705,22 +1701,22 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1748,7 +1744,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1764,7 +1760,7 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1787,13 +1783,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1808,9 +1804,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1825,19 +1821,19 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1849,15 +1845,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1929,11 +1925,11 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1941,92 +1937,92 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="169" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2371,83 +2367,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2943,13 +2863,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>storage.volume</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
     </sheetDataSet>
@@ -3317,7 +3231,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3326,7 +3240,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3459,14 +3373,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3492,7 +3406,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="227" t="s">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="C2" s="228"/>
       <c r="D2" s="228"/>
@@ -3508,7 +3422,7 @@
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="233"/>
       <c r="C4" s="234"/>
       <c r="D4" s="234"/>
@@ -3565,7 +3479,7 @@
     <row r="9" spans="1:11" s="36" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
       <c r="C9" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="11"/>
@@ -3578,7 +3492,7 @@
     <row r="10" spans="1:11" s="36" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
       <c r="C10" s="97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>4</v>
@@ -3600,7 +3514,7 @@
       <c r="A11" s="36"/>
       <c r="B11" s="17"/>
       <c r="C11" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>4</v>
@@ -3623,7 +3537,7 @@
       <c r="A12" s="36"/>
       <c r="B12" s="17"/>
       <c r="C12" s="110" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>4</v>
@@ -3646,7 +3560,7 @@
       <c r="A13" s="36"/>
       <c r="B13" s="17"/>
       <c r="C13" s="120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>4</v>
@@ -3669,7 +3583,7 @@
       <c r="A14" s="36"/>
       <c r="B14" s="17"/>
       <c r="C14" s="120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>4</v>
@@ -3692,7 +3606,7 @@
       <c r="A15" s="36"/>
       <c r="B15" s="17"/>
       <c r="C15" s="124" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>4</v>
@@ -3715,7 +3629,7 @@
       <c r="A16" s="36"/>
       <c r="B16" s="17"/>
       <c r="C16" s="124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>4</v>
@@ -3738,7 +3652,7 @@
       <c r="A17" s="36"/>
       <c r="B17" s="17"/>
       <c r="C17" s="124" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>4</v>
@@ -3761,7 +3675,7 @@
       <c r="A18" s="36"/>
       <c r="B18" s="17"/>
       <c r="C18" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>4</v>
@@ -3784,7 +3698,7 @@
       <c r="A19" s="36"/>
       <c r="B19" s="17"/>
       <c r="C19" s="124" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>4</v>
@@ -3807,7 +3721,7 @@
       <c r="A20" s="36"/>
       <c r="B20" s="17"/>
       <c r="C20" s="124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>4</v>
@@ -3830,7 +3744,7 @@
       <c r="A21" s="36"/>
       <c r="B21" s="17"/>
       <c r="C21" s="124" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>4</v>
@@ -3853,10 +3767,10 @@
       <c r="A22" s="36"/>
       <c r="B22" s="17"/>
       <c r="C22" s="124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E22" s="119">
         <f>'Research data'!E18</f>
@@ -3876,10 +3790,10 @@
       <c r="A23" s="36"/>
       <c r="B23" s="17"/>
       <c r="C23" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>167</v>
       </c>
       <c r="E23" s="119">
         <f>'Research data'!E19</f>
@@ -3945,7 +3859,7 @@
       <c r="A26" s="98"/>
       <c r="B26" s="32"/>
       <c r="C26" s="97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>4</v>
@@ -4035,7 +3949,7 @@
     <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="32"/>
       <c r="C30" s="118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>59</v>
@@ -4046,7 +3960,7 @@
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H30" s="28"/>
       <c r="I30" s="116" t="str">
@@ -4084,7 +3998,7 @@
       <c r="A32" s="98"/>
       <c r="B32" s="99"/>
       <c r="C32" s="97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>4</v>
@@ -4095,7 +4009,7 @@
       </c>
       <c r="F32" s="97"/>
       <c r="G32" s="102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H32" s="97"/>
       <c r="I32" s="116" t="str">
@@ -4109,7 +4023,7 @@
       <c r="A33" s="98"/>
       <c r="B33" s="99"/>
       <c r="C33" s="97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>4</v>
@@ -4120,7 +4034,7 @@
       </c>
       <c r="F33" s="97"/>
       <c r="G33" s="102" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H33" s="97"/>
       <c r="I33" s="116" t="str">
@@ -4134,7 +4048,7 @@
       <c r="A34" s="98"/>
       <c r="B34" s="99"/>
       <c r="C34" s="97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>4</v>
@@ -4145,7 +4059,7 @@
       </c>
       <c r="F34" s="97"/>
       <c r="G34" s="102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H34" s="97"/>
       <c r="I34" s="116" t="str">
@@ -4159,7 +4073,7 @@
       <c r="A35" s="98"/>
       <c r="B35" s="99"/>
       <c r="C35" s="97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>4</v>
@@ -4170,7 +4084,7 @@
       </c>
       <c r="F35" s="97"/>
       <c r="G35" s="102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H35" s="97"/>
       <c r="I35" s="116" t="str">
@@ -4193,7 +4107,7 @@
     <row r="37" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="32"/>
       <c r="C37" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" s="82"/>
       <c r="E37" s="83"/>
@@ -4286,7 +4200,7 @@
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H41" s="28"/>
       <c r="I41" s="116" t="str">
@@ -4411,10 +4325,10 @@
     <row r="47" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="32"/>
       <c r="C47" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>167</v>
       </c>
       <c r="E47" s="112">
         <f>'Research data'!E43</f>
@@ -4660,38 +4574,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -4754,7 +4636,7 @@
     <row r="3" spans="2:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
       <c r="C3" s="89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="89" t="s">
         <v>12</v>
@@ -4764,25 +4646,25 @@
       </c>
       <c r="F3" s="89"/>
       <c r="G3" s="53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I3" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="52" t="s">
-        <v>122</v>
-      </c>
       <c r="K3" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="L3" s="89" t="s">
+      <c r="M3" s="89" t="s">
         <v>169</v>
-      </c>
-      <c r="M3" s="89" t="s">
-        <v>170</v>
       </c>
       <c r="N3" s="89" t="str">
         <f>Sources!E23</f>
@@ -4794,7 +4676,7 @@
       </c>
       <c r="P3" s="52"/>
       <c r="Q3" s="152" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
@@ -4865,7 +4747,7 @@
       <c r="O6" s="172"/>
       <c r="P6" s="171"/>
       <c r="Q6" s="155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4897,7 +4779,7 @@
       <c r="O7" s="174"/>
       <c r="P7" s="174"/>
       <c r="Q7" s="155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4929,7 +4811,7 @@
       <c r="O8" s="174"/>
       <c r="P8" s="174"/>
       <c r="Q8" s="155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5020,7 +4902,7 @@
       <c r="O11" s="177"/>
       <c r="P11" s="176"/>
       <c r="Q11" s="156" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5259,7 +5141,7 @@
       <c r="O19" s="177"/>
       <c r="P19" s="177"/>
       <c r="Q19" s="156" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5290,7 +5172,7 @@
       <c r="O20" s="177"/>
       <c r="P20" s="176"/>
       <c r="Q20" s="156" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5321,7 +5203,7 @@
       <c r="O21" s="174"/>
       <c r="P21" s="174"/>
       <c r="Q21" s="156" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5352,7 +5234,7 @@
       <c r="O22" s="172"/>
       <c r="P22" s="171"/>
       <c r="Q22" s="156" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5414,7 +5296,7 @@
       <c r="O24" s="190"/>
       <c r="P24" s="189"/>
       <c r="Q24" s="156" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5446,7 +5328,7 @@
       <c r="O25" s="190"/>
       <c r="P25" s="189"/>
       <c r="Q25" s="156" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5477,7 +5359,7 @@
       <c r="O26" s="190"/>
       <c r="P26" s="189"/>
       <c r="Q26" s="155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5509,7 +5391,7 @@
       <c r="O27" s="193"/>
       <c r="P27" s="189"/>
       <c r="Q27" s="155" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5540,7 +5422,7 @@
       <c r="O28" s="190"/>
       <c r="P28" s="189"/>
       <c r="Q28" s="194" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5571,7 +5453,7 @@
       <c r="O29" s="190"/>
       <c r="P29" s="189"/>
       <c r="Q29" s="194" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5602,7 +5484,7 @@
       <c r="O30" s="190"/>
       <c r="P30" s="189"/>
       <c r="Q30" s="194" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5633,7 +5515,7 @@
       <c r="O31" s="190"/>
       <c r="P31" s="189"/>
       <c r="Q31" s="194" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -5704,7 +5586,7 @@
       <c r="O34" s="190"/>
       <c r="P34" s="189"/>
       <c r="Q34" s="155" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5736,7 +5618,7 @@
       <c r="O35" s="190"/>
       <c r="P35" s="189"/>
       <c r="Q35" s="196" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5802,7 +5684,7 @@
       <c r="O37" s="54"/>
       <c r="P37" s="189"/>
       <c r="Q37" s="155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5865,7 +5747,7 @@
       <c r="O39" s="190"/>
       <c r="P39" s="189"/>
       <c r="Q39" s="155" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5897,7 +5779,7 @@
       <c r="O40" s="190"/>
       <c r="P40" s="189"/>
       <c r="Q40" s="155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5929,7 +5811,7 @@
       <c r="O41" s="190"/>
       <c r="P41" s="189"/>
       <c r="Q41" s="194" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5961,7 +5843,7 @@
       <c r="O42" s="190"/>
       <c r="P42" s="189"/>
       <c r="Q42" s="155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6068,7 +5950,7 @@
       <c r="O46" s="190"/>
       <c r="P46" s="189"/>
       <c r="Q46" s="155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6100,7 +5982,7 @@
       <c r="O47" s="190"/>
       <c r="P47" s="189"/>
       <c r="Q47" s="155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6132,7 +6014,7 @@
       <c r="O48" s="190"/>
       <c r="P48" s="189"/>
       <c r="Q48" s="194" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6164,7 +6046,7 @@
       <c r="O49" s="190"/>
       <c r="P49" s="189"/>
       <c r="Q49" s="155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6196,7 +6078,7 @@
       <c r="O50" s="190"/>
       <c r="P50" s="189"/>
       <c r="Q50" s="156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6228,7 +6110,7 @@
       <c r="O51" s="190"/>
       <c r="P51" s="189"/>
       <c r="Q51" s="156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6261,7 +6143,7 @@
       <c r="O52" s="190"/>
       <c r="P52" s="189"/>
       <c r="Q52" s="156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6294,7 +6176,7 @@
       <c r="O53" s="190"/>
       <c r="P53" s="189"/>
       <c r="Q53" s="156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6327,7 +6209,7 @@
       <c r="O54" s="190"/>
       <c r="P54" s="189"/>
       <c r="Q54" s="156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -6473,13 +6355,13 @@
         <v>26</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>53</v>
       </c>
       <c r="J5" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K5" s="137" t="s">
         <v>14</v>
@@ -6505,25 +6387,25 @@
       </c>
       <c r="D7" s="207"/>
       <c r="E7" s="208" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="208" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="208" t="s">
+      <c r="G7" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="209" t="s">
+      <c r="H7" s="209" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="209" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="209" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="209" t="s">
+      <c r="J7" s="209" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="156" t="s">
         <v>108</v>
-      </c>
-      <c r="J7" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" s="156" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -6546,25 +6428,25 @@
       </c>
       <c r="D9" s="211"/>
       <c r="E9" s="207" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="212" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="213" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="213" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="213" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="213" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="213" t="s">
-        <v>133</v>
-      </c>
-      <c r="J9" s="213" t="s">
-        <v>135</v>
-      </c>
       <c r="K9" s="214" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
@@ -6584,25 +6466,25 @@
       <c r="C11" s="216"/>
       <c r="D11" s="211"/>
       <c r="E11" s="207" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="212" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" s="213" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="213" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I11" s="213" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J11" s="213" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K11" s="214" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -6625,10 +6507,10 @@
       </c>
       <c r="D13" s="208"/>
       <c r="E13" s="208" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F13" s="208" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="208">
         <v>2015</v>
@@ -6640,7 +6522,7 @@
         <v>42948</v>
       </c>
       <c r="J13" s="209" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K13" s="217"/>
     </row>
@@ -6706,10 +6588,10 @@
       <c r="C18" s="219"/>
       <c r="D18" s="208"/>
       <c r="E18" s="208" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F18" s="208" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" s="208"/>
       <c r="H18" s="208"/>
@@ -6717,10 +6599,10 @@
         <v>42948</v>
       </c>
       <c r="J18" s="209" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" s="217" t="s">
         <v>173</v>
-      </c>
-      <c r="K18" s="217" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -6788,23 +6670,23 @@
       </c>
       <c r="D23" s="208"/>
       <c r="E23" s="208" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F23" s="208" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" s="208" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H23" s="208" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I23" s="218">
         <v>42979</v>
       </c>
       <c r="J23" s="209"/>
       <c r="K23" s="217" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -6827,23 +6709,23 @@
       </c>
       <c r="D25" s="208"/>
       <c r="E25" s="208" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F25" s="208" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G25" s="208" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H25" s="208" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I25" s="218">
         <v>42979</v>
       </c>
       <c r="J25" s="209"/>
       <c r="K25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -6866,14 +6748,14 @@
       </c>
       <c r="D27" s="208"/>
       <c r="E27" s="208" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F27" s="208"/>
       <c r="G27" s="208"/>
       <c r="H27" s="208"/>
       <c r="I27" s="208"/>
       <c r="J27" s="209" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K27" s="217"/>
     </row>
@@ -7630,8 +7512,8 @@
   </sheetPr>
   <dimension ref="A2:U330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7676,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -8060,7 +7942,7 @@
       <c r="E22" s="92"/>
       <c r="F22" s="92"/>
       <c r="G22" s="111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H22" s="92"/>
       <c r="I22" s="92"/>
@@ -8083,7 +7965,7 @@
       <c r="E23" s="92"/>
       <c r="F23" s="92"/>
       <c r="G23" s="111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H23" s="92"/>
       <c r="I23" s="92"/>
@@ -8106,7 +7988,7 @@
       <c r="E24" s="92"/>
       <c r="F24" s="92"/>
       <c r="G24" s="111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H24" s="92"/>
       <c r="I24" s="92"/>
@@ -8129,7 +8011,7 @@
       <c r="E25" s="92"/>
       <c r="F25" s="92"/>
       <c r="G25" s="111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H25" s="92"/>
       <c r="I25" s="92"/>
@@ -8173,7 +8055,7 @@
       <c r="E27" s="92"/>
       <c r="F27" s="92"/>
       <c r="G27" s="111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H27" s="92"/>
       <c r="I27" s="92"/>
@@ -8196,7 +8078,7 @@
       <c r="E28" s="92"/>
       <c r="F28" s="92"/>
       <c r="G28" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H28" s="92"/>
       <c r="I28" s="92"/>
@@ -8240,7 +8122,7 @@
       <c r="E30" s="92"/>
       <c r="F30" s="92"/>
       <c r="G30" s="111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H30" s="92"/>
       <c r="I30" s="92"/>
@@ -8370,7 +8252,7 @@
       </c>
       <c r="F36" s="111"/>
       <c r="G36" s="121" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H36" s="111"/>
       <c r="I36" s="111"/>
@@ -8416,7 +8298,7 @@
       </c>
       <c r="F38" s="111"/>
       <c r="G38" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H38" s="111"/>
       <c r="I38" s="111"/>
@@ -8439,7 +8321,7 @@
       <c r="E39" s="111"/>
       <c r="F39" s="111"/>
       <c r="G39" s="121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H39" s="111"/>
       <c r="I39" s="111"/>
@@ -8483,7 +8365,7 @@
       <c r="E41" s="111"/>
       <c r="F41" s="111"/>
       <c r="G41" s="111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H41" s="111"/>
       <c r="I41" s="111"/>
@@ -8506,7 +8388,7 @@
       <c r="E42" s="111"/>
       <c r="F42" s="111"/>
       <c r="G42" s="111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H42" s="111"/>
       <c r="I42" s="111"/>
@@ -8550,7 +8432,7 @@
       <c r="E44" s="111"/>
       <c r="F44" s="111"/>
       <c r="G44" s="121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H44" s="111"/>
       <c r="I44" s="111"/>
@@ -8573,7 +8455,7 @@
       <c r="E45" s="111"/>
       <c r="F45" s="111"/>
       <c r="G45" s="121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H45" s="111"/>
       <c r="I45" s="111"/>
@@ -8641,7 +8523,7 @@
       </c>
       <c r="F48" s="111"/>
       <c r="G48" s="121" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H48" s="111"/>
       <c r="I48" s="111"/>
@@ -9489,7 +9371,7 @@
       </c>
       <c r="G88" s="111"/>
       <c r="H88" s="129" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I88" s="111"/>
       <c r="J88" s="92"/>
@@ -9542,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="135" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I90" s="111"/>
       <c r="J90" s="92"/>
@@ -9623,7 +9505,7 @@
     <row r="94" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B94" s="93"/>
       <c r="C94" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D94" s="111"/>
       <c r="E94" s="111"/>
@@ -9714,7 +9596,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F98" s="111" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G98" s="111" t="s">
         <v>36</v>
@@ -9745,7 +9627,7 @@
         <v>59</v>
       </c>
       <c r="G99" s="111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H99" s="111"/>
       <c r="I99" s="111"/>
@@ -9812,7 +9694,7 @@
       </c>
       <c r="F102" s="111"/>
       <c r="G102" s="111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H102" s="111"/>
       <c r="I102" s="111"/>
@@ -9838,7 +9720,7 @@
       </c>
       <c r="F103" s="111"/>
       <c r="G103" s="111" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H103" s="111"/>
       <c r="I103" s="111"/>
@@ -9864,7 +9746,7 @@
       </c>
       <c r="F104" s="111"/>
       <c r="G104" s="111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H104" s="111"/>
       <c r="I104" s="111"/>
@@ -9910,7 +9792,7 @@
       </c>
       <c r="F106" s="121"/>
       <c r="G106" s="121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H106" s="111"/>
       <c r="I106" s="111"/>
@@ -9935,7 +9817,7 @@
       </c>
       <c r="F107" s="126"/>
       <c r="G107" s="121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H107" s="111"/>
       <c r="I107" s="111"/>
@@ -9979,7 +9861,7 @@
       <c r="E109" s="121"/>
       <c r="F109" s="121"/>
       <c r="G109" s="121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H109" s="111"/>
       <c r="I109" s="111"/>
@@ -11300,7 +11182,7 @@
     <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B172" s="93"/>
       <c r="C172" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D172" s="111"/>
       <c r="E172" s="111"/>
@@ -11484,7 +11366,7 @@
         <v>28</v>
       </c>
       <c r="G180" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H180" s="111"/>
       <c r="I180" s="111"/>
@@ -11508,7 +11390,7 @@
       <c r="E181" s="111"/>
       <c r="F181" s="111"/>
       <c r="G181" s="111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H181" s="111"/>
       <c r="I181" s="111"/>
@@ -11558,7 +11440,7 @@
         <v>28</v>
       </c>
       <c r="G183" s="111" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H183" s="111"/>
       <c r="I183" s="111"/>
@@ -11696,11 +11578,11 @@
         <v>28</v>
       </c>
       <c r="G189" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H189" s="111"/>
       <c r="I189" s="111" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J189" s="92"/>
       <c r="L189" s="92"/>
@@ -11722,7 +11604,7 @@
       <c r="E190" s="111"/>
       <c r="F190" s="111"/>
       <c r="G190" s="111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H190" s="111"/>
       <c r="I190" s="111"/>
@@ -11817,7 +11699,7 @@
         <v>28</v>
       </c>
       <c r="G194" s="129" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H194" s="111"/>
       <c r="I194" s="111"/>
@@ -11925,7 +11807,7 @@
       <c r="A199" s="107"/>
       <c r="B199" s="108"/>
       <c r="C199" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D199" s="111"/>
       <c r="E199" s="111"/>
@@ -12108,10 +11990,10 @@
         <v>117</v>
       </c>
       <c r="F207" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="G207" s="111" t="s">
         <v>123</v>
-      </c>
-      <c r="G207" s="111" t="s">
-        <v>124</v>
       </c>
       <c r="H207" s="111"/>
       <c r="I207" s="111"/>
@@ -12135,7 +12017,7 @@
       <c r="E208" s="111"/>
       <c r="F208" s="111"/>
       <c r="G208" s="111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H208" s="111"/>
       <c r="I208" s="111"/>
@@ -12161,10 +12043,10 @@
         <v>96.694214876033058</v>
       </c>
       <c r="F209" s="111" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G209" s="111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H209" s="111"/>
       <c r="I209" s="111"/>
@@ -12188,7 +12070,7 @@
       <c r="E210" s="111"/>
       <c r="F210" s="111"/>
       <c r="G210" s="111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H210" s="111"/>
       <c r="I210" s="111"/>
@@ -12235,10 +12117,10 @@
         <v>189</v>
       </c>
       <c r="F212" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="G212" s="111" t="s">
         <v>123</v>
-      </c>
-      <c r="G212" s="111" t="s">
-        <v>124</v>
       </c>
       <c r="H212" s="111"/>
       <c r="I212" s="111"/>
@@ -12262,7 +12144,7 @@
       <c r="E213" s="111"/>
       <c r="F213" s="111"/>
       <c r="G213" s="111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H213" s="111"/>
       <c r="I213" s="111"/>
@@ -12310,10 +12192,10 @@
         <v>156.19834710743802</v>
       </c>
       <c r="F215" s="111" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G215" s="111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H215" s="111"/>
       <c r="I215" s="111"/>
@@ -12337,7 +12219,7 @@
       <c r="E216" s="111"/>
       <c r="F216" s="111"/>
       <c r="G216" s="111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H216" s="111"/>
       <c r="I216" s="111"/>
@@ -12429,10 +12311,10 @@
         <v>252.89256198347107</v>
       </c>
       <c r="F220" s="111" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G220" s="111" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H220" s="111"/>
       <c r="I220" s="111"/>
@@ -12456,7 +12338,7 @@
       <c r="E221" s="111"/>
       <c r="F221" s="111"/>
       <c r="G221" s="111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H221" s="111"/>
       <c r="I221" s="111"/>
@@ -12497,10 +12379,10 @@
     <row r="223" spans="1:21" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B223" s="128"/>
       <c r="C223" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D223" s="129" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E223" s="129"/>
       <c r="F223" s="129"/>
@@ -12524,10 +12406,10 @@
       <c r="B224" s="128"/>
       <c r="C224" s="11"/>
       <c r="D224" s="129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E224" s="129" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F224" s="129"/>
       <c r="G224" s="129"/>
@@ -12674,7 +12556,7 @@
         <v>5</v>
       </c>
       <c r="I229" s="129" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J229" s="129"/>
       <c r="K229" s="129"/>
@@ -12698,10 +12580,10 @@
       <c r="G230" s="129"/>
       <c r="H230" s="129"/>
       <c r="I230" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J230" s="129" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K230" s="129"/>
       <c r="L230" s="129"/>
@@ -12719,7 +12601,7 @@
       <c r="B231" s="128"/>
       <c r="C231" s="129"/>
       <c r="D231" s="129" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E231" s="129"/>
       <c r="F231" s="129"/>
@@ -12743,7 +12625,7 @@
       <c r="B232" s="128"/>
       <c r="C232" s="129"/>
       <c r="D232" s="129" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E232" s="129"/>
       <c r="F232" s="129"/>
@@ -12767,13 +12649,13 @@
       <c r="B233" s="128"/>
       <c r="C233" s="129"/>
       <c r="D233" s="133" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E233" s="129">
         <v>3.25</v>
       </c>
       <c r="F233" s="129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G233" s="129"/>
       <c r="H233" s="129"/>
@@ -12795,13 +12677,13 @@
       <c r="B234" s="128"/>
       <c r="C234" s="129"/>
       <c r="D234" s="133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E234" s="129">
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="F234" s="129" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G234" s="129"/>
       <c r="H234" s="129"/>
@@ -12845,13 +12727,13 @@
       <c r="B236" s="128"/>
       <c r="C236" s="129"/>
       <c r="D236" s="129" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E236" s="129">
         <v>7</v>
       </c>
       <c r="F236" s="129" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G236" s="129"/>
       <c r="H236" s="129"/>
@@ -12925,16 +12807,16 @@
       <c r="B239" s="128"/>
       <c r="C239" s="129"/>
       <c r="D239" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E239" s="129">
         <v>0</v>
       </c>
       <c r="F239" s="129" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G239" s="129" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H239" s="129"/>
       <c r="I239" s="129"/>
@@ -13090,7 +12972,7 @@
         <v>Ecofys</v>
       </c>
       <c r="D246" s="129" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E246" s="129">
         <v>66</v>
@@ -13226,7 +13108,7 @@
       <c r="B252" s="128"/>
       <c r="C252" s="129"/>
       <c r="D252" s="129" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E252" s="129"/>
       <c r="F252" s="129"/>
@@ -13257,7 +13139,7 @@
         <v>1.86</v>
       </c>
       <c r="F253" s="129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G253" s="129"/>
       <c r="H253" s="129"/>
@@ -13308,7 +13190,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="F255" s="129" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G255" s="129"/>
       <c r="H255" s="129"/>
@@ -13835,7 +13717,7 @@
     <row r="280" spans="2:21" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B280" s="128"/>
       <c r="C280" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D280" s="148">
         <f>'[2]Research data'!C222</f>
@@ -13846,7 +13728,7 @@
         <v>50713.749060856499</v>
       </c>
       <c r="F280" s="126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G280" s="129"/>
       <c r="H280" s="129"/>
@@ -13857,13 +13739,13 @@
       <c r="B281" s="128"/>
       <c r="C281" s="129"/>
       <c r="D281" s="129" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E281" s="129">
         <v>200</v>
       </c>
       <c r="F281" s="129" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G281" s="129"/>
       <c r="H281" s="129"/>
@@ -13874,7 +13756,7 @@
       <c r="B282" s="128"/>
       <c r="C282" s="129"/>
       <c r="D282" s="129" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E282" s="129">
         <v>570</v>
@@ -13891,7 +13773,7 @@
       <c r="B283" s="128"/>
       <c r="C283" s="129"/>
       <c r="D283" s="129" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E283" s="223">
         <f>E282/1.21</f>
@@ -13909,14 +13791,14 @@
       <c r="B284" s="128"/>
       <c r="C284" s="129"/>
       <c r="D284" s="129" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E284" s="224">
         <f>E283/E281</f>
         <v>2.3553719008264462</v>
       </c>
       <c r="F284" s="129" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G284" s="129"/>
       <c r="H284" s="129"/>
@@ -13927,14 +13809,14 @@
       <c r="B285" s="128"/>
       <c r="C285" s="129"/>
       <c r="D285" s="129" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E285" s="223">
         <f>E315</f>
         <v>21531.100478468899</v>
       </c>
       <c r="F285" s="129" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G285" s="129"/>
       <c r="H285" s="129"/>
@@ -13945,14 +13827,14 @@
       <c r="B286" s="128"/>
       <c r="C286" s="129"/>
       <c r="D286" s="129" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E286" s="223">
         <f>E280*E$22</f>
         <v>0</v>
       </c>
       <c r="F286" s="129" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G286" s="129"/>
       <c r="H286" s="129"/>
@@ -13985,13 +13867,13 @@
       <c r="B289" s="128"/>
       <c r="C289" s="129"/>
       <c r="D289" s="126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E289" s="126">
         <v>4.18</v>
       </c>
       <c r="F289" s="126" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G289" s="129"/>
       <c r="H289" s="129"/>
@@ -14002,13 +13884,13 @@
       <c r="B290" s="128"/>
       <c r="C290" s="129"/>
       <c r="D290" s="126" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E290" s="126">
         <v>10</v>
       </c>
       <c r="F290" s="126" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G290" s="129"/>
       <c r="H290" s="129"/>
@@ -14019,13 +13901,13 @@
       <c r="B291" s="128"/>
       <c r="C291" s="129"/>
       <c r="D291" s="126" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E291" s="126">
         <v>50</v>
       </c>
       <c r="F291" s="126" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G291" s="129"/>
       <c r="H291" s="129"/>
@@ -14036,14 +13918,14 @@
       <c r="B292" s="128"/>
       <c r="C292" s="129"/>
       <c r="D292" s="126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E292" s="126">
         <f>E281</f>
         <v>200</v>
       </c>
       <c r="F292" s="126" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G292" s="129"/>
       <c r="H292" s="129"/>
@@ -14054,14 +13936,14 @@
       <c r="B293" s="128"/>
       <c r="C293" s="129"/>
       <c r="D293" s="126" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E293" s="147">
         <f>E292*(E291-E290)*E289</f>
         <v>33440</v>
       </c>
       <c r="F293" s="126" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G293" s="129"/>
       <c r="H293" s="129"/>
@@ -14080,7 +13962,7 @@
         <v>9.2888888888888882E-3</v>
       </c>
       <c r="F294" s="126" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G294" s="129"/>
       <c r="H294" s="129"/>
@@ -14255,7 +14137,7 @@
     <row r="310" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B310" s="128"/>
       <c r="C310" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D310" s="148">
         <f>'[2]Research data'!C222</f>
@@ -14266,7 +14148,7 @@
         <v>60055.755466803741</v>
       </c>
       <c r="F310" s="126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G310" s="129"/>
       <c r="H310" s="129"/>
@@ -14277,13 +14159,13 @@
       <c r="B311" s="128"/>
       <c r="C311" s="129"/>
       <c r="D311" s="129" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E311" s="129">
         <v>120</v>
       </c>
       <c r="F311" s="129" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G311" s="129"/>
       <c r="H311" s="129"/>
@@ -14294,7 +14176,7 @@
       <c r="B312" s="128"/>
       <c r="C312" s="129"/>
       <c r="D312" s="129" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E312" s="129">
         <v>405</v>
@@ -14311,7 +14193,7 @@
       <c r="B313" s="128"/>
       <c r="C313" s="129"/>
       <c r="D313" s="129" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E313" s="223">
         <f>E312/1.21</f>
@@ -14329,14 +14211,14 @@
       <c r="B314" s="128"/>
       <c r="C314" s="129"/>
       <c r="D314" s="129" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E314" s="224">
         <f>E313/E311</f>
         <v>2.7892561983471071</v>
       </c>
       <c r="F314" s="129" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G314" s="129"/>
       <c r="H314" s="129"/>
@@ -14347,14 +14229,14 @@
       <c r="B315" s="128"/>
       <c r="C315" s="129"/>
       <c r="D315" s="129" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E315" s="223">
         <f>E311/E325</f>
         <v>21531.100478468899</v>
       </c>
       <c r="F315" s="129" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G315" s="129"/>
       <c r="H315" s="129"/>
@@ -14365,14 +14247,14 @@
       <c r="B316" s="128"/>
       <c r="C316" s="129"/>
       <c r="D316" s="129" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E316" s="223">
         <f>E310*E$22</f>
         <v>0</v>
       </c>
       <c r="F316" s="129" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G316" s="129"/>
       <c r="H316" s="129"/>
@@ -14416,13 +14298,13 @@
       <c r="B320" s="128"/>
       <c r="C320" s="129"/>
       <c r="D320" s="126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E320" s="126">
         <v>4.18</v>
       </c>
       <c r="F320" s="126" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G320" s="129"/>
       <c r="H320" s="129"/>
@@ -14433,13 +14315,13 @@
       <c r="B321" s="128"/>
       <c r="C321" s="129"/>
       <c r="D321" s="126" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E321" s="126">
         <v>10</v>
       </c>
       <c r="F321" s="126" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G321" s="129"/>
       <c r="H321" s="129"/>
@@ -14450,13 +14332,13 @@
       <c r="B322" s="128"/>
       <c r="C322" s="129"/>
       <c r="D322" s="126" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E322" s="126">
         <v>50</v>
       </c>
       <c r="F322" s="126" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G322" s="129"/>
       <c r="H322" s="129"/>
@@ -14467,14 +14349,14 @@
       <c r="B323" s="128"/>
       <c r="C323" s="129"/>
       <c r="D323" s="126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E323" s="126">
         <f>E311</f>
         <v>120</v>
       </c>
       <c r="F323" s="126" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G323" s="129"/>
       <c r="H323" s="129"/>
@@ -14485,14 +14367,14 @@
       <c r="B324" s="128"/>
       <c r="C324" s="129"/>
       <c r="D324" s="126" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E324" s="147">
         <f>E323*(E322-E321)*E320</f>
         <v>20064</v>
       </c>
       <c r="F324" s="126" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G324" s="129"/>
       <c r="H324" s="129"/>
@@ -14511,7 +14393,7 @@
         <v>5.5733333333333329E-3</v>
       </c>
       <c r="F325" s="126" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G325" s="129"/>
       <c r="H325" s="129"/>

--- a/nodes_source_analyses/households/households_water_heater_hybrid_heatpump_air_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_water_heater_hybrid_heatpump_air_water_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559D39C9-AA5C-C143-96E3-C32F4D94247B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7609CBC1-7D14-4B44-9664-7F9C04DC4AAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -21,7 +21,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sources!$A$63:$L$112</definedName>
@@ -39,10 +38,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -52,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="212">
   <si>
     <t>Source</t>
   </si>
@@ -778,6 +783,12 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no costs to avoid double counting </t>
+  </si>
 </sst>
 </file>
 
@@ -791,7 +802,7 @@
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -943,6 +954,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -950,6 +962,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -957,6 +970,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -964,6 +978,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -971,6 +986,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -978,17 +994,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1002,11 +1021,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1020,6 +1041,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1636,7 +1663,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1914,9 +1941,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1981,6 +2005,7 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2008,6 +2033,7 @@
     <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="329">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2890,27 +2916,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Research data"/>
-      <sheetName val="Sources"/>
-      <sheetName val="Notes"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3419,8 +3424,8 @@
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3720,7 +3725,7 @@
       <c r="D18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="220">
+      <c r="E18" s="219">
         <f>'Research data'!E14</f>
         <v>1.2944983818770229E-3</v>
       </c>
@@ -4067,17 +4072,15 @@
         <v>28</v>
       </c>
       <c r="E34" s="111">
-        <f>'Research data'!E30</f>
-        <v>4135</v>
+        <v>0</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="28" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="28"/>
-      <c r="I34" s="115" t="str">
-        <f>LOOKUP(E34,'Research data'!G30:P30,'Research data'!G$3:P$3)</f>
-        <v>Techneco</v>
+      <c r="I34" s="235" t="s">
+        <v>211</v>
       </c>
       <c r="J34" s="86"/>
     </row>
@@ -4090,7 +4093,6 @@
         <v>28</v>
       </c>
       <c r="E35" s="111">
-        <f>'Research data'!E31</f>
         <v>0</v>
       </c>
       <c r="F35" s="28"/>
@@ -4098,9 +4100,8 @@
         <v>49</v>
       </c>
       <c r="H35" s="28"/>
-      <c r="I35" s="115" t="str">
-        <f>LOOKUP(E35,'Research data'!G31:P31,'Research data'!G$3:P$3)</f>
-        <v>Quintel WD</v>
+      <c r="I35" s="235" t="s">
+        <v>211</v>
       </c>
       <c r="J35" s="86"/>
     </row>
@@ -4113,17 +4114,15 @@
         <v>28</v>
       </c>
       <c r="E36" s="111">
-        <f>'Research data'!E32</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="28" t="s">
         <v>22</v>
       </c>
       <c r="H36" s="28"/>
-      <c r="I36" s="115" t="str">
-        <f>LOOKUP(E36,'Research data'!G32:P32,'Research data'!G$3:P$3)</f>
-        <v>DHPA</v>
+      <c r="I36" s="235" t="s">
+        <v>211</v>
       </c>
       <c r="J36" s="86"/>
     </row>
@@ -4136,7 +4135,6 @@
         <v>28</v>
       </c>
       <c r="E37" s="111">
-        <f>'Research data'!E33</f>
         <v>0</v>
       </c>
       <c r="F37" s="28"/>
@@ -4144,9 +4142,8 @@
         <v>140</v>
       </c>
       <c r="H37" s="28"/>
-      <c r="I37" s="115" t="str">
-        <f>LOOKUP(E37,'Research data'!G33:P33,'Research data'!G$3:P$3)</f>
-        <v>Quintel WD</v>
+      <c r="I37" s="235" t="s">
+        <v>211</v>
       </c>
       <c r="J37" s="86"/>
     </row>
@@ -4159,17 +4156,15 @@
         <v>47</v>
       </c>
       <c r="E38" s="111">
-        <f>'Research data'!E34</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="28" t="s">
         <v>50</v>
       </c>
       <c r="H38" s="28"/>
-      <c r="I38" s="115" t="str">
-        <f>LOOKUP(E38,'Research data'!G34:P34,'Research data'!G$3:P$3)</f>
-        <v>DHPA</v>
+      <c r="I38" s="235" t="s">
+        <v>211</v>
       </c>
       <c r="J38" s="86"/>
     </row>
@@ -4182,7 +4177,6 @@
         <v>46</v>
       </c>
       <c r="E39" s="111">
-        <f>'Research data'!E35</f>
         <v>0</v>
       </c>
       <c r="F39" s="28"/>
@@ -4190,9 +4184,8 @@
         <v>51</v>
       </c>
       <c r="H39" s="28"/>
-      <c r="I39" s="115" t="str">
-        <f>LOOKUP(E39,'Research data'!G35:P35,'Research data'!G$3:P$3)</f>
-        <v>Quintel WD</v>
+      <c r="I39" s="235" t="s">
+        <v>211</v>
       </c>
       <c r="J39" s="86"/>
     </row>
@@ -4205,7 +4198,6 @@
         <v>46</v>
       </c>
       <c r="E40" s="111">
-        <f>'Research data'!E36</f>
         <v>0</v>
       </c>
       <c r="F40" s="28"/>
@@ -4213,9 +4205,8 @@
         <v>52</v>
       </c>
       <c r="H40" s="28"/>
-      <c r="I40" s="115" t="str">
-        <f>LOOKUP(E40,'Research data'!G36:P36,'Research data'!G$3:P$3)</f>
-        <v>Quintel WD</v>
+      <c r="I40" s="235" t="s">
+        <v>211</v>
       </c>
       <c r="J40" s="86"/>
     </row>
@@ -4228,17 +4219,15 @@
         <v>2</v>
       </c>
       <c r="E41" s="111">
-        <f>'Research data'!E37</f>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="28" t="s">
         <v>21</v>
       </c>
       <c r="H41" s="28"/>
-      <c r="I41" s="115" t="str">
-        <f>LOOKUP(E41,'Research data'!G37:P37,'Research data'!G$3:P$3)</f>
-        <v>Quintel WD</v>
+      <c r="I41" s="225" t="s">
+        <v>210</v>
       </c>
       <c r="J41" s="86"/>
     </row>
@@ -4251,14 +4240,14 @@
         <v>9</v>
       </c>
       <c r="E42" s="111">
-        <f>'Research data'!E38</f>
+        <f>'Research data'!E37</f>
         <v>0</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="115" t="str">
-        <f>LOOKUP(E42,'Research data'!G38:P38,'Research data'!G$3:P$3)</f>
+        <f>LOOKUP(E42,'Research data'!G37:P37,'Research data'!G$3:P$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J42" s="86"/>
@@ -4272,7 +4261,7 @@
         <v>158</v>
       </c>
       <c r="E43" s="111">
-        <f>'Research data'!E39</f>
+        <f>'Research data'!E38</f>
         <v>50713.749060856499</v>
       </c>
       <c r="F43" s="28"/>
@@ -4314,7 +4303,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="111">
-        <f>'Research data'!E42</f>
+        <f>'Research data'!E41</f>
         <v>0</v>
       </c>
       <c r="F46" s="28"/>
@@ -4323,7 +4312,7 @@
       </c>
       <c r="H46" s="28"/>
       <c r="I46" s="115" t="str">
-        <f>LOOKUP(E46,'Research data'!G42:P42,'Research data'!G$3:P$3)</f>
+        <f>LOOKUP(E46,'Research data'!G41:P41,'Research data'!G$3:P$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J46" s="86"/>
@@ -4337,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="111">
-        <f>'Research data'!E43</f>
+        <f>'Research data'!E42</f>
         <v>0</v>
       </c>
       <c r="F47" s="28"/>
@@ -4346,7 +4335,7 @@
       </c>
       <c r="H47" s="28"/>
       <c r="I47" s="115" t="str">
-        <f>LOOKUP(E47,'Research data'!G43:P43,'Research data'!G$3:P$3)</f>
+        <f>LOOKUP(E47,'Research data'!G42:P42,'Research data'!G$3:P$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J47" s="86"/>
@@ -4360,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="111">
-        <f>'Research data'!E44</f>
+        <f>'Research data'!E43</f>
         <v>15</v>
       </c>
       <c r="F48" s="28"/>
@@ -4369,7 +4358,7 @@
       </c>
       <c r="H48" s="28"/>
       <c r="I48" s="115" t="str">
-        <f>LOOKUP(E48,'Research data'!G44:P44,'Research data'!G$3:P$3)</f>
+        <f>LOOKUP(E48,'Research data'!G43:P43,'Research data'!G$3:P$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J48" s="86"/>
@@ -4383,14 +4372,14 @@
         <v>4</v>
       </c>
       <c r="E49" s="111">
-        <f>'Research data'!E45</f>
+        <f>'Research data'!E44</f>
         <v>0</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="115" t="str">
-        <f>LOOKUP(E49,'Research data'!G45:P45,'Research data'!G$3:P$3)</f>
+        <f>LOOKUP(E49,'Research data'!G44:P44,'Research data'!G$3:P$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J49" s="86"/>
@@ -4404,14 +4393,14 @@
         <v>4</v>
       </c>
       <c r="E50" s="111">
-        <f>'Research data'!E46</f>
+        <f>'Research data'!E45</f>
         <v>0</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="115" t="str">
-        <f>LOOKUP(E50,'Research data'!G46:P46,'Research data'!G$3:P$3)</f>
+        <f>LOOKUP(E50,'Research data'!G45:P45,'Research data'!G$3:P$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J50" s="86"/>
@@ -4425,14 +4414,14 @@
         <v>4</v>
       </c>
       <c r="E51" s="111">
-        <f>'Research data'!E47</f>
+        <f>'Research data'!E46</f>
         <v>0</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="115" t="str">
-        <f>LOOKUP(E51,'Research data'!G47:P47,'Research data'!G$3:P$3)</f>
+        <f>LOOKUP(E51,'Research data'!G46:P46,'Research data'!G$3:P$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J51" s="86"/>
@@ -4446,14 +4435,14 @@
         <v>4</v>
       </c>
       <c r="E52" s="111">
-        <f>'Research data'!E48</f>
+        <f>'Research data'!E47</f>
         <v>11.5</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="115" t="str">
-        <f>LOOKUP(E52,'Research data'!G48:P48,'Research data'!G$3:P$3)</f>
+        <f>LOOKUP(E52,'Research data'!G47:P47,'Research data'!G$3:P$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J52" s="86"/>
@@ -4467,14 +4456,14 @@
         <v>4</v>
       </c>
       <c r="E53" s="111">
-        <f>'Research data'!E49</f>
+        <f>'Research data'!E48</f>
         <v>2</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="115" t="str">
-        <f>LOOKUP(E53,'Research data'!G49:P49,'Research data'!G$3:P$3)</f>
+        <f>LOOKUP(E53,'Research data'!G48:P48,'Research data'!G$3:P$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J53" s="35"/>
@@ -4488,14 +4477,14 @@
         <v>4</v>
       </c>
       <c r="E54" s="111">
-        <f>'Research data'!E50</f>
+        <f>'Research data'!E49</f>
         <v>11.5</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
       <c r="I54" s="115" t="str">
-        <f>LOOKUP(E54,'Research data'!G50:P50,'Research data'!G$3:P$3)</f>
+        <f>LOOKUP(E54,'Research data'!G49:P49,'Research data'!G$3:P$3)</f>
         <v>Quintel WD</v>
       </c>
     </row>
@@ -4523,10 +4512,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD31"/>
+    <sheetView topLeftCell="A5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -5385,8 +5374,7 @@
         <v>euro</v>
       </c>
       <c r="E30" s="187">
-        <f>H30</f>
-        <v>4135</v>
+        <v>0</v>
       </c>
       <c r="F30" s="54"/>
       <c r="G30" s="188"/>
@@ -5418,7 +5406,6 @@
         <v>euro</v>
       </c>
       <c r="E31" s="187">
-        <f>G31</f>
         <v>0</v>
       </c>
       <c r="F31" s="54"/>
@@ -5450,8 +5437,7 @@
         <v>euro</v>
       </c>
       <c r="E32" s="187">
-        <f>M32</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="54"/>
       <c r="G32" s="188"/>
@@ -5484,7 +5470,6 @@
         <v>euro</v>
       </c>
       <c r="E33" s="187">
-        <f>G33</f>
         <v>0</v>
       </c>
       <c r="F33" s="54"/>
@@ -5516,8 +5501,7 @@
         <v>euro/year</v>
       </c>
       <c r="E34" s="187">
-        <f>M34</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F34" s="54"/>
       <c r="G34" s="188"/>
@@ -5547,7 +5531,6 @@
         <v>euro/FLH</v>
       </c>
       <c r="E35" s="187">
-        <f>G35</f>
         <v>0</v>
       </c>
       <c r="F35" s="54"/>
@@ -5579,7 +5562,6 @@
         <v>euro/FLH</v>
       </c>
       <c r="E36" s="187">
-        <f>G36</f>
         <v>0</v>
       </c>
       <c r="F36" s="54"/>
@@ -5603,20 +5585,19 @@
       <c r="A37" s="106"/>
       <c r="B37" s="107"/>
       <c r="C37" s="167" t="str">
-        <f>Dashboard!C41</f>
-        <v>wacc</v>
+        <f>Dashboard!C42</f>
+        <v>takes_part_in_ets</v>
       </c>
       <c r="D37" s="167" t="str">
-        <f>Dashboard!D41</f>
-        <v>%</v>
-      </c>
-      <c r="E37" s="197">
-        <f>G37</f>
-        <v>0.04</v>
+        <f>Dashboard!D42</f>
+        <v>yes=1, no=0</v>
+      </c>
+      <c r="E37" s="187">
+        <v>0</v>
       </c>
       <c r="F37" s="54"/>
-      <c r="G37" s="197">
-        <v>0.04</v>
+      <c r="G37" s="187">
+        <v>0</v>
       </c>
       <c r="H37" s="188"/>
       <c r="I37" s="188"/>
@@ -5627,80 +5608,70 @@
       <c r="N37" s="189"/>
       <c r="O37" s="189"/>
       <c r="P37" s="188"/>
-      <c r="Q37" s="193" t="s">
-        <v>133</v>
+      <c r="Q37" s="154" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="17" thickBot="1">
       <c r="A38" s="106"/>
       <c r="B38" s="107"/>
       <c r="C38" s="167" t="str">
-        <f>Dashboard!C42</f>
-        <v>takes_part_in_ets</v>
+        <f>Dashboard!C43</f>
+        <v>storage.cost_per_mwh</v>
       </c>
       <c r="D38" s="167" t="str">
-        <f>Dashboard!D42</f>
-        <v>yes=1, no=0</v>
+        <f>Dashboard!D43</f>
+        <v>euro/MWh</v>
       </c>
       <c r="E38" s="187">
-        <f>G38</f>
-        <v>0</v>
+        <f>O38</f>
+        <v>50713.749060856499</v>
       </c>
       <c r="F38" s="54"/>
-      <c r="G38" s="187">
-        <v>0</v>
-      </c>
+      <c r="G38" s="188"/>
       <c r="H38" s="188"/>
       <c r="I38" s="188"/>
       <c r="J38" s="189"/>
       <c r="K38" s="189"/>
       <c r="L38" s="189"/>
       <c r="M38" s="189"/>
-      <c r="N38" s="189"/>
-      <c r="O38" s="189"/>
-      <c r="P38" s="188"/>
-      <c r="Q38" s="154" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="17" thickBot="1">
+      <c r="N38" s="196">
+        <f>Notes!E310</f>
+        <v>60055.755466803741</v>
+      </c>
+      <c r="O38" s="196">
+        <f>Notes!E280</f>
+        <v>50713.749060856499</v>
+      </c>
+      <c r="P38" s="189"/>
+      <c r="Q38" s="154"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="106"/>
       <c r="B39" s="107"/>
-      <c r="C39" s="167" t="str">
-        <f>Dashboard!C43</f>
-        <v>storage.cost_per_mwh</v>
-      </c>
-      <c r="D39" s="167" t="str">
-        <f>Dashboard!D43</f>
-        <v>euro/MWh</v>
-      </c>
-      <c r="E39" s="187">
-        <f>O39</f>
-        <v>50713.749060856499</v>
-      </c>
-      <c r="F39" s="54"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="189"/>
-      <c r="K39" s="189"/>
-      <c r="L39" s="189"/>
-      <c r="M39" s="189"/>
-      <c r="N39" s="196">
-        <f>Notes!E310</f>
-        <v>60055.755466803741</v>
-      </c>
-      <c r="O39" s="196">
-        <f>Notes!E280</f>
-        <v>50713.749060856499</v>
-      </c>
-      <c r="P39" s="189"/>
-      <c r="Q39" s="154"/>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="C39" s="26"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="158"/>
+      <c r="K39" s="158"/>
+      <c r="L39" s="158"/>
+      <c r="M39" s="158"/>
+      <c r="N39" s="158"/>
+      <c r="O39" s="158"/>
+      <c r="P39" s="156"/>
+      <c r="Q39" s="160"/>
+    </row>
+    <row r="40" spans="1:17" ht="17" thickBot="1">
       <c r="A40" s="106"/>
       <c r="B40" s="107"/>
-      <c r="C40" s="26"/>
+      <c r="C40" s="26" t="str">
+        <f>Dashboard!C45</f>
+        <v>Other</v>
+      </c>
       <c r="D40" s="64"/>
       <c r="E40" s="64"/>
       <c r="F40" s="64"/>
@@ -5714,43 +5685,53 @@
       <c r="N40" s="158"/>
       <c r="O40" s="158"/>
       <c r="P40" s="156"/>
-      <c r="Q40" s="160"/>
+      <c r="Q40" s="153"/>
     </row>
     <row r="41" spans="1:17" ht="17" thickBot="1">
-      <c r="A41" s="106"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="26" t="str">
-        <f>Dashboard!C45</f>
-        <v>Other</v>
-      </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="158"/>
-      <c r="K41" s="158"/>
-      <c r="L41" s="158"/>
-      <c r="M41" s="158"/>
-      <c r="N41" s="158"/>
-      <c r="O41" s="158"/>
-      <c r="P41" s="156"/>
-      <c r="Q41" s="153"/>
-    </row>
-    <row r="42" spans="1:17" ht="17" thickBot="1">
-      <c r="A42" s="104"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="167" t="str">
+      <c r="A41" s="104"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="167" t="str">
         <f>Dashboard!C46</f>
         <v>land_use_per_unit</v>
       </c>
-      <c r="D42" s="167" t="str">
+      <c r="D41" s="167" t="str">
         <f>Dashboard!D46</f>
         <v>km2</v>
       </c>
-      <c r="E42" s="198">
-        <f>G42</f>
+      <c r="E41" s="197">
+        <f>G41</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="54"/>
+      <c r="G41" s="187">
+        <v>0</v>
+      </c>
+      <c r="H41" s="188"/>
+      <c r="I41" s="188"/>
+      <c r="J41" s="189"/>
+      <c r="K41" s="189"/>
+      <c r="L41" s="189"/>
+      <c r="M41" s="189"/>
+      <c r="N41" s="189"/>
+      <c r="O41" s="189"/>
+      <c r="P41" s="188"/>
+      <c r="Q41" s="154" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="17" thickBot="1">
+      <c r="A42" s="106"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="167" t="str">
+        <f>Dashboard!C47</f>
+        <v>construction_time</v>
+      </c>
+      <c r="D42" s="167" t="str">
+        <f>Dashboard!D47</f>
+        <v>years</v>
+      </c>
+      <c r="E42" s="197">
+        <f t="shared" ref="E42:E49" si="3">G42</f>
         <v>0</v>
       </c>
       <c r="F42" s="54"/>
@@ -5774,20 +5755,20 @@
       <c r="A43" s="106"/>
       <c r="B43" s="107"/>
       <c r="C43" s="167" t="str">
-        <f>Dashboard!C47</f>
-        <v>construction_time</v>
+        <f>Dashboard!C48</f>
+        <v>technical_lifetime</v>
       </c>
       <c r="D43" s="167" t="str">
-        <f>Dashboard!D47</f>
+        <f>Dashboard!D48</f>
         <v>years</v>
       </c>
-      <c r="E43" s="198">
-        <f t="shared" ref="E43:E50" si="3">G43</f>
-        <v>0</v>
+      <c r="E43" s="197">
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="F43" s="54"/>
       <c r="G43" s="187">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H43" s="188"/>
       <c r="I43" s="188"/>
@@ -5798,28 +5779,28 @@
       <c r="N43" s="189"/>
       <c r="O43" s="189"/>
       <c r="P43" s="188"/>
-      <c r="Q43" s="154" t="s">
-        <v>135</v>
+      <c r="Q43" s="193" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="17" thickBot="1">
       <c r="A44" s="106"/>
       <c r="B44" s="107"/>
       <c r="C44" s="167" t="str">
-        <f>Dashboard!C48</f>
-        <v>technical_lifetime</v>
+        <f>Dashboard!C49</f>
+        <v>free_co2_factor</v>
       </c>
       <c r="D44" s="167" t="str">
-        <f>Dashboard!D48</f>
-        <v>years</v>
-      </c>
-      <c r="E44" s="198">
+        <f>Dashboard!D49</f>
+        <v>-</v>
+      </c>
+      <c r="E44" s="197">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F44" s="54"/>
       <c r="G44" s="187">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H44" s="188"/>
       <c r="I44" s="188"/>
@@ -5830,22 +5811,22 @@
       <c r="N44" s="189"/>
       <c r="O44" s="189"/>
       <c r="P44" s="188"/>
-      <c r="Q44" s="193" t="s">
-        <v>137</v>
+      <c r="Q44" s="154" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="17" thickBot="1">
       <c r="A45" s="106"/>
       <c r="B45" s="107"/>
       <c r="C45" s="167" t="str">
-        <f>Dashboard!C49</f>
-        <v>free_co2_factor</v>
+        <f>Dashboard!C50</f>
+        <v>hours_prep_nl</v>
       </c>
       <c r="D45" s="167" t="str">
-        <f>Dashboard!D49</f>
+        <f>Dashboard!D50</f>
         <v>-</v>
       </c>
-      <c r="E45" s="198">
+      <c r="E45" s="197">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5862,22 +5843,22 @@
       <c r="N45" s="189"/>
       <c r="O45" s="189"/>
       <c r="P45" s="188"/>
-      <c r="Q45" s="154" t="s">
-        <v>135</v>
+      <c r="Q45" s="155" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="17" thickBot="1">
       <c r="A46" s="106"/>
       <c r="B46" s="107"/>
       <c r="C46" s="167" t="str">
-        <f>Dashboard!C50</f>
-        <v>hours_prep_nl</v>
+        <f>Dashboard!C51</f>
+        <v>hours_prod_nl</v>
       </c>
       <c r="D46" s="167" t="str">
-        <f>Dashboard!D50</f>
+        <f>Dashboard!D51</f>
         <v>-</v>
       </c>
-      <c r="E46" s="198">
+      <c r="E46" s="197">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5902,20 +5883,21 @@
       <c r="A47" s="106"/>
       <c r="B47" s="107"/>
       <c r="C47" s="167" t="str">
-        <f>Dashboard!C51</f>
-        <v>hours_prod_nl</v>
+        <f>Dashboard!C52</f>
+        <v>hours_place_nl</v>
       </c>
       <c r="D47" s="167" t="str">
-        <f>Dashboard!D51</f>
+        <f>Dashboard!D52</f>
         <v>-</v>
       </c>
-      <c r="E47" s="198">
+      <c r="E47" s="197">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="F47" s="54"/>
-      <c r="G47" s="187">
-        <v>0</v>
+      <c r="G47" s="197">
+        <f>4.5+7</f>
+        <v>11.5</v>
       </c>
       <c r="H47" s="188"/>
       <c r="I47" s="188"/>
@@ -5934,21 +5916,21 @@
       <c r="A48" s="106"/>
       <c r="B48" s="107"/>
       <c r="C48" s="167" t="str">
-        <f>Dashboard!C52</f>
-        <v>hours_place_nl</v>
+        <f>Dashboard!C53</f>
+        <v>hours_maint_nl</v>
       </c>
       <c r="D48" s="167" t="str">
-        <f>Dashboard!D52</f>
+        <f>Dashboard!D53</f>
         <v>-</v>
       </c>
-      <c r="E48" s="198">
+      <c r="E48" s="197">
         <f t="shared" si="3"/>
-        <v>11.5</v>
+        <v>2</v>
       </c>
       <c r="F48" s="54"/>
-      <c r="G48" s="198">
-        <f>4.5+7</f>
-        <v>11.5</v>
+      <c r="G48" s="197">
+        <f>1.5+0.5</f>
+        <v>2</v>
       </c>
       <c r="H48" s="188"/>
       <c r="I48" s="188"/>
@@ -5967,21 +5949,21 @@
       <c r="A49" s="106"/>
       <c r="B49" s="107"/>
       <c r="C49" s="167" t="str">
-        <f>Dashboard!C53</f>
-        <v>hours_maint_nl</v>
+        <f>Dashboard!C54</f>
+        <v>hours_remov_nl</v>
       </c>
       <c r="D49" s="167" t="str">
-        <f>Dashboard!D53</f>
+        <f>Dashboard!D54</f>
         <v>-</v>
       </c>
-      <c r="E49" s="198">
+      <c r="E49" s="197">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>11.5</v>
       </c>
       <c r="F49" s="54"/>
-      <c r="G49" s="198">
-        <f>1.5+0.5</f>
-        <v>2</v>
+      <c r="G49" s="197">
+        <f>4.5+7</f>
+        <v>11.5</v>
       </c>
       <c r="H49" s="188"/>
       <c r="I49" s="188"/>
@@ -5996,38 +5978,24 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="17" thickBot="1">
+    <row r="50" spans="1:17">
       <c r="A50" s="106"/>
       <c r="B50" s="107"/>
-      <c r="C50" s="167" t="str">
-        <f>Dashboard!C54</f>
-        <v>hours_remov_nl</v>
-      </c>
-      <c r="D50" s="167" t="str">
-        <f>Dashboard!D54</f>
-        <v>-</v>
-      </c>
-      <c r="E50" s="198">
-        <f t="shared" si="3"/>
-        <v>11.5</v>
-      </c>
-      <c r="F50" s="54"/>
-      <c r="G50" s="198">
-        <f>4.5+7</f>
-        <v>11.5</v>
-      </c>
-      <c r="H50" s="188"/>
-      <c r="I50" s="188"/>
-      <c r="J50" s="189"/>
-      <c r="K50" s="189"/>
-      <c r="L50" s="189"/>
-      <c r="M50" s="189"/>
-      <c r="N50" s="189"/>
-      <c r="O50" s="189"/>
-      <c r="P50" s="188"/>
-      <c r="Q50" s="155" t="s">
-        <v>138</v>
-      </c>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="158"/>
+      <c r="K50" s="158"/>
+      <c r="L50" s="158"/>
+      <c r="M50" s="158"/>
+      <c r="N50" s="158"/>
+      <c r="O50" s="158"/>
+      <c r="P50" s="156"/>
+      <c r="Q50" s="161"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="106"/>
@@ -6046,45 +6014,26 @@
       <c r="N51" s="158"/>
       <c r="O51" s="158"/>
       <c r="P51" s="156"/>
-      <c r="Q51" s="161"/>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="Q51" s="162"/>
+    </row>
+    <row r="52" spans="1:17" ht="17" thickBot="1">
       <c r="A52" s="106"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="156"/>
-      <c r="H52" s="156"/>
-      <c r="I52" s="156"/>
-      <c r="J52" s="158"/>
-      <c r="K52" s="158"/>
-      <c r="L52" s="158"/>
-      <c r="M52" s="158"/>
-      <c r="N52" s="158"/>
-      <c r="O52" s="158"/>
-      <c r="P52" s="156"/>
-      <c r="Q52" s="162"/>
-    </row>
-    <row r="53" spans="1:17" ht="17" thickBot="1">
-      <c r="A53" s="106"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="164"/>
-      <c r="D53" s="164"/>
-      <c r="E53" s="164"/>
-      <c r="F53" s="164"/>
-      <c r="G53" s="165"/>
-      <c r="H53" s="165"/>
-      <c r="I53" s="165"/>
-      <c r="J53" s="164"/>
-      <c r="K53" s="164"/>
-      <c r="L53" s="164"/>
-      <c r="M53" s="164"/>
-      <c r="N53" s="164"/>
-      <c r="O53" s="164"/>
-      <c r="P53" s="164"/>
-      <c r="Q53" s="166"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="165"/>
+      <c r="H52" s="165"/>
+      <c r="I52" s="165"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="164"/>
+      <c r="L52" s="164"/>
+      <c r="M52" s="164"/>
+      <c r="N52" s="164"/>
+      <c r="O52" s="164"/>
+      <c r="P52" s="164"/>
+      <c r="Q52" s="166"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6107,7 +6056,7 @@
   <cols>
     <col min="1" max="1" width="3.33203125" style="39" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="199" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="198" customWidth="1"/>
     <col min="4" max="4" width="13" style="39" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" style="39" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="39" customWidth="1"/>
@@ -6120,7 +6069,7 @@
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
     <row r="2" spans="2:11">
       <c r="B2" s="41"/>
-      <c r="C2" s="200"/>
+      <c r="C2" s="199"/>
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
@@ -6132,7 +6081,7 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="44"/>
-      <c r="C3" s="201" t="s">
+      <c r="C3" s="200" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="45"/>
@@ -6146,7 +6095,7 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44"/>
-      <c r="C4" s="202"/>
+      <c r="C4" s="201"/>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
@@ -6158,7 +6107,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="49"/>
-      <c r="C5" s="203" t="s">
+      <c r="C5" s="202" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="50"/>
@@ -6186,7 +6135,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="44"/>
-      <c r="C6" s="201"/>
+      <c r="C6" s="200"/>
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
       <c r="F6" s="45"/>
@@ -6198,27 +6147,27 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="44"/>
-      <c r="C7" s="205" t="str">
+      <c r="C7" s="204" t="str">
         <f>'Research data'!C30</f>
         <v>initial_investment</v>
       </c>
-      <c r="D7" s="206"/>
-      <c r="E7" s="207" t="s">
+      <c r="D7" s="205"/>
+      <c r="E7" s="206" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="207" t="s">
+      <c r="F7" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="208" t="s">
+      <c r="G7" s="207" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="208" t="s">
+      <c r="H7" s="207" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="208" t="s">
+      <c r="I7" s="207" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="208" t="s">
+      <c r="J7" s="207" t="s">
         <v>123</v>
       </c>
       <c r="K7" s="155" t="s">
@@ -6227,864 +6176,864 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="44"/>
-      <c r="C8" s="209"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="213"/>
-    </row>
-    <row r="9" spans="2:11" ht="32">
+      <c r="C8" s="208"/>
+      <c r="D8" s="209"/>
+      <c r="E8" s="205"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="212"/>
+    </row>
+    <row r="9" spans="2:11" ht="34">
       <c r="B9" s="44"/>
-      <c r="C9" s="214" t="str">
+      <c r="C9" s="213" t="str">
         <f>'Research data'!C27</f>
         <v>heat_output_capacity</v>
       </c>
-      <c r="D9" s="210"/>
-      <c r="E9" s="206" t="s">
+      <c r="D9" s="209"/>
+      <c r="E9" s="205" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="211" t="s">
+      <c r="F9" s="210" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="212" t="s">
+      <c r="G9" s="211" t="s">
         <v>125</v>
       </c>
-      <c r="H9" s="212" t="s">
+      <c r="H9" s="211" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="212" t="s">
+      <c r="I9" s="211" t="s">
         <v>124</v>
       </c>
-      <c r="J9" s="212" t="s">
+      <c r="J9" s="211" t="s">
         <v>126</v>
       </c>
-      <c r="K9" s="213" t="s">
+      <c r="K9" s="212" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="44"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="212"/>
-      <c r="K10" s="213"/>
-    </row>
-    <row r="11" spans="2:11" ht="32">
+      <c r="C10" s="214"/>
+      <c r="D10" s="209"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="212"/>
+    </row>
+    <row r="11" spans="2:11" ht="34">
       <c r="B11" s="44"/>
-      <c r="C11" s="215"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="206" t="s">
+      <c r="C11" s="214"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="211" t="s">
+      <c r="F11" s="210" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="212" t="s">
+      <c r="G11" s="211" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="212" t="s">
+      <c r="H11" s="211" t="s">
         <v>125</v>
       </c>
-      <c r="I11" s="212" t="s">
+      <c r="I11" s="211" t="s">
         <v>124</v>
       </c>
-      <c r="J11" s="212" t="s">
+      <c r="J11" s="211" t="s">
         <v>127</v>
       </c>
-      <c r="K11" s="213" t="s">
+      <c r="K11" s="212" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="44"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="207"/>
-      <c r="F12" s="207"/>
-      <c r="G12" s="207"/>
-      <c r="H12" s="207"/>
-      <c r="I12" s="207"/>
-      <c r="J12" s="208"/>
-      <c r="K12" s="216"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="206"/>
+      <c r="E12" s="206"/>
+      <c r="F12" s="206"/>
+      <c r="G12" s="206"/>
+      <c r="H12" s="206"/>
+      <c r="I12" s="206"/>
+      <c r="J12" s="207"/>
+      <c r="K12" s="215"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="44"/>
-      <c r="C13" s="209" t="str">
+      <c r="C13" s="208" t="str">
         <f>'Research data'!C13</f>
         <v>fever.base_cop</v>
       </c>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207" t="s">
+      <c r="D13" s="206"/>
+      <c r="E13" s="206" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="207" t="s">
+      <c r="F13" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="207">
+      <c r="G13" s="206">
         <v>2015</v>
       </c>
-      <c r="H13" s="207">
+      <c r="H13" s="206">
         <v>2015</v>
       </c>
-      <c r="I13" s="217">
+      <c r="I13" s="216">
         <v>42948</v>
       </c>
-      <c r="J13" s="208" t="s">
+      <c r="J13" s="207" t="s">
         <v>162</v>
       </c>
-      <c r="K13" s="216"/>
+      <c r="K13" s="215"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="44"/>
-      <c r="C14" s="209" t="str">
+      <c r="C14" s="208" t="str">
         <f>'Research data'!C14</f>
         <v xml:space="preserve">fever.capacity.electricity </v>
       </c>
-      <c r="D14" s="207"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="207"/>
-      <c r="H14" s="207"/>
-      <c r="I14" s="207"/>
-      <c r="J14" s="208"/>
-      <c r="K14" s="216"/>
+      <c r="D14" s="206"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="206"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="207"/>
+      <c r="K14" s="215"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="44"/>
-      <c r="C15" s="209" t="str">
+      <c r="C15" s="208" t="str">
         <f>'Research data'!C17</f>
         <v xml:space="preserve">fever.cop_per_degree </v>
       </c>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="208"/>
-      <c r="K15" s="216"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="206"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="215"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="44"/>
-      <c r="C16" s="209" t="str">
+      <c r="C16" s="208" t="str">
         <f>'Research data'!C16</f>
         <v xml:space="preserve">fever.cop_cutoff </v>
       </c>
-      <c r="D16" s="207"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="208"/>
-      <c r="K16" s="216"/>
+      <c r="D16" s="206"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="206"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="207"/>
+      <c r="K16" s="215"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="44"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="207"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="207"/>
-      <c r="I17" s="207"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="216"/>
+      <c r="C17" s="217"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="207"/>
+      <c r="K17" s="215"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="44"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="207"/>
-      <c r="E18" s="207" t="s">
+      <c r="C18" s="217"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="206" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="207" t="s">
+      <c r="F18" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="207"/>
-      <c r="H18" s="207"/>
-      <c r="I18" s="217">
+      <c r="G18" s="206"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="216">
         <v>42948</v>
       </c>
-      <c r="J18" s="208" t="s">
+      <c r="J18" s="207" t="s">
         <v>164</v>
       </c>
-      <c r="K18" s="216" t="s">
+      <c r="K18" s="215" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="44"/>
-      <c r="C19" s="219" t="str">
+      <c r="C19" s="218" t="str">
         <f>Dashboard!C36</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="D19" s="207"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="207"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="207"/>
-      <c r="I19" s="207"/>
-      <c r="J19" s="208"/>
-      <c r="K19" s="216"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="207"/>
+      <c r="K19" s="215"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="44"/>
-      <c r="C20" s="219" t="str">
+      <c r="C20" s="218" t="str">
         <f>Dashboard!C38</f>
         <v>fixed_operation_and_maintenance_costs_per_year</v>
       </c>
-      <c r="D20" s="207"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="207"/>
-      <c r="I20" s="207"/>
-      <c r="J20" s="208"/>
-      <c r="K20" s="216"/>
+      <c r="D20" s="206"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="207"/>
+      <c r="K20" s="215"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="44"/>
-      <c r="C21" s="219" t="str">
+      <c r="C21" s="218" t="str">
         <f>'Research data'!C18</f>
         <v>storage.volume</v>
       </c>
-      <c r="D21" s="207"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="207"/>
-      <c r="H21" s="207"/>
-      <c r="I21" s="207"/>
-      <c r="J21" s="208"/>
-      <c r="K21" s="216"/>
+      <c r="D21" s="206"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="207"/>
+      <c r="K21" s="215"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="44"/>
-      <c r="C22" s="219"/>
-      <c r="D22" s="207"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="207"/>
-      <c r="G22" s="207"/>
-      <c r="H22" s="207"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="208"/>
-      <c r="K22" s="216"/>
+      <c r="C22" s="218"/>
+      <c r="D22" s="206"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="206"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="206"/>
+      <c r="I22" s="206"/>
+      <c r="J22" s="207"/>
+      <c r="K22" s="215"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="44"/>
-      <c r="C23" s="219" t="str">
+      <c r="C23" s="218" t="str">
         <f>Dashboard!C$43</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D23" s="207"/>
-      <c r="E23" s="207" t="s">
+      <c r="D23" s="206"/>
+      <c r="E23" s="206" t="s">
         <v>203</v>
       </c>
-      <c r="F23" s="207" t="s">
+      <c r="F23" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="207" t="s">
+      <c r="G23" s="206" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="207" t="s">
+      <c r="H23" s="206" t="s">
         <v>163</v>
       </c>
-      <c r="I23" s="217">
+      <c r="I23" s="216">
         <v>42979</v>
       </c>
-      <c r="J23" s="208"/>
-      <c r="K23" s="216" t="s">
+      <c r="J23" s="207"/>
+      <c r="K23" s="215" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="44"/>
-      <c r="C24" s="208"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
-      <c r="K24" s="216"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="206"/>
+      <c r="G24" s="206"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="207"/>
+      <c r="K24" s="215"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="44"/>
-      <c r="C25" s="219" t="str">
+      <c r="C25" s="218" t="str">
         <f>Dashboard!C$43</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D25" s="207"/>
-      <c r="E25" s="207" t="s">
+      <c r="D25" s="206"/>
+      <c r="E25" s="206" t="s">
         <v>205</v>
       </c>
-      <c r="F25" s="207" t="s">
+      <c r="F25" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="207" t="s">
+      <c r="G25" s="206" t="s">
         <v>163</v>
       </c>
-      <c r="H25" s="207" t="s">
+      <c r="H25" s="206" t="s">
         <v>163</v>
       </c>
-      <c r="I25" s="217">
+      <c r="I25" s="216">
         <v>42979</v>
       </c>
-      <c r="J25" s="208"/>
+      <c r="J25" s="207"/>
       <c r="K25" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="44"/>
-      <c r="C26" s="224"/>
-      <c r="D26" s="207"/>
-      <c r="E26" s="207"/>
-      <c r="F26" s="207"/>
-      <c r="G26" s="207"/>
-      <c r="H26" s="207"/>
-      <c r="I26" s="217"/>
-      <c r="J26" s="208"/>
+      <c r="C26" s="223"/>
+      <c r="D26" s="206"/>
+      <c r="E26" s="206"/>
+      <c r="F26" s="206"/>
+      <c r="G26" s="206"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="216"/>
+      <c r="J26" s="207"/>
       <c r="K26"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="44"/>
-      <c r="C27" s="209" t="str">
+      <c r="C27" s="208" t="str">
         <f>'Research data'!C6</f>
         <v>input.ambient_heat</v>
       </c>
-      <c r="D27" s="207"/>
-      <c r="E27" s="207" t="s">
+      <c r="D27" s="206"/>
+      <c r="E27" s="206" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="207"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="207"/>
-      <c r="J27" s="208" t="s">
+      <c r="F27" s="206"/>
+      <c r="G27" s="206"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="206"/>
+      <c r="J27" s="207" t="s">
         <v>187</v>
       </c>
-      <c r="K27" s="216"/>
+      <c r="K27" s="215"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="44"/>
-      <c r="C28" s="209" t="str">
+      <c r="C28" s="208" t="str">
         <f>'Research data'!C7</f>
         <v>input.electricity</v>
       </c>
-      <c r="D28" s="207"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="207"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="208"/>
-      <c r="K28" s="216"/>
+      <c r="D28" s="206"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="206"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="207"/>
+      <c r="K28" s="215"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="44"/>
-      <c r="C29" s="209" t="str">
+      <c r="C29" s="208" t="str">
         <f>'Research data'!C8</f>
         <v>input.network_gas</v>
       </c>
-      <c r="D29" s="207"/>
-      <c r="E29" s="207"/>
-      <c r="F29" s="207"/>
-      <c r="G29" s="207"/>
-      <c r="H29" s="207"/>
-      <c r="I29" s="207"/>
-      <c r="J29" s="208"/>
-      <c r="K29" s="216"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="206"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="206"/>
+      <c r="J29" s="207"/>
+      <c r="K29" s="215"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="44"/>
-      <c r="C30" s="209" t="str">
+      <c r="C30" s="208" t="str">
         <f>Dashboard!C23</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D30" s="207"/>
-      <c r="E30" s="207"/>
-      <c r="F30" s="207"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="207"/>
-      <c r="I30" s="207"/>
-      <c r="J30" s="208"/>
-      <c r="K30" s="216"/>
+      <c r="D30" s="206"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="206"/>
+      <c r="G30" s="206"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="206"/>
+      <c r="J30" s="207"/>
+      <c r="K30" s="215"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="44"/>
-      <c r="C31" s="209" t="str">
+      <c r="C31" s="208" t="str">
         <f>'Research data'!C9</f>
         <v>output.useable_heat.ambient_heat</v>
       </c>
-      <c r="D31" s="207"/>
-      <c r="E31" s="207"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="207"/>
-      <c r="H31" s="207"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="208"/>
-      <c r="K31" s="216"/>
+      <c r="D31" s="206"/>
+      <c r="E31" s="206"/>
+      <c r="F31" s="206"/>
+      <c r="G31" s="206"/>
+      <c r="H31" s="206"/>
+      <c r="I31" s="206"/>
+      <c r="J31" s="207"/>
+      <c r="K31" s="215"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="44"/>
-      <c r="C32" s="209" t="str">
+      <c r="C32" s="208" t="str">
         <f>'Research data'!C10</f>
         <v>output.useable_heat.electricity</v>
       </c>
-      <c r="D32" s="207"/>
-      <c r="E32" s="207"/>
-      <c r="F32" s="207"/>
-      <c r="G32" s="207"/>
-      <c r="H32" s="207"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="208"/>
-      <c r="K32" s="216"/>
+      <c r="D32" s="206"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="206"/>
+      <c r="G32" s="206"/>
+      <c r="H32" s="206"/>
+      <c r="I32" s="206"/>
+      <c r="J32" s="207"/>
+      <c r="K32" s="215"/>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="44"/>
-      <c r="C33" s="209" t="str">
+      <c r="C33" s="208" t="str">
         <f>'Research data'!C11</f>
         <v>output.useable_heat.network_gas</v>
       </c>
-      <c r="D33" s="207"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="207"/>
-      <c r="H33" s="207"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="208"/>
-      <c r="K33" s="216"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="207"/>
+      <c r="K33" s="215"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="44"/>
-      <c r="C34" s="209" t="str">
+      <c r="C34" s="208" t="str">
         <f>'Research data'!C12</f>
         <v>output.cooling</v>
       </c>
-      <c r="D34" s="207"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="207"/>
-      <c r="H34" s="207"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="208"/>
-      <c r="K34" s="216"/>
+      <c r="D34" s="206"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="206"/>
+      <c r="G34" s="206"/>
+      <c r="H34" s="206"/>
+      <c r="I34" s="206"/>
+      <c r="J34" s="207"/>
+      <c r="K34" s="215"/>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="44"/>
-      <c r="C35" s="209" t="str">
+      <c r="C35" s="208" t="str">
         <f>'Research data'!C20</f>
         <v>availability</v>
       </c>
-      <c r="D35" s="207"/>
-      <c r="E35" s="207"/>
-      <c r="F35" s="207"/>
-      <c r="G35" s="207"/>
-      <c r="H35" s="207"/>
-      <c r="I35" s="207"/>
-      <c r="J35" s="208"/>
-      <c r="K35" s="216"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="206"/>
+      <c r="G35" s="206"/>
+      <c r="H35" s="206"/>
+      <c r="I35" s="206"/>
+      <c r="J35" s="207"/>
+      <c r="K35" s="215"/>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="44"/>
-      <c r="C36" s="209" t="str">
+      <c r="C36" s="208" t="str">
         <f>'Research data'!C21</f>
         <v>forecasting_error</v>
       </c>
-      <c r="D36" s="207"/>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="207"/>
-      <c r="J36" s="208"/>
-      <c r="K36" s="216"/>
+      <c r="D36" s="206"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="206"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="206"/>
+      <c r="J36" s="207"/>
+      <c r="K36" s="215"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="44"/>
-      <c r="C37" s="209" t="str">
+      <c r="C37" s="208" t="str">
         <f>'Research data'!C22</f>
         <v>full_load_hours</v>
       </c>
-      <c r="D37" s="207"/>
-      <c r="E37" s="207"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="207"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="207"/>
-      <c r="J37" s="208"/>
-      <c r="K37" s="216"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="206"/>
+      <c r="J37" s="207"/>
+      <c r="K37" s="215"/>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="44"/>
-      <c r="C38" s="209" t="str">
+      <c r="C38" s="208" t="str">
         <f>'Research data'!C23</f>
         <v>households_supplied_per_unit</v>
       </c>
-      <c r="D38" s="207"/>
-      <c r="E38" s="207"/>
-      <c r="F38" s="207"/>
-      <c r="G38" s="207"/>
-      <c r="H38" s="207"/>
-      <c r="I38" s="207"/>
-      <c r="J38" s="208"/>
-      <c r="K38" s="216"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="206"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="206"/>
+      <c r="J38" s="207"/>
+      <c r="K38" s="215"/>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="44"/>
-      <c r="C39" s="209" t="str">
+      <c r="C39" s="208" t="str">
         <f>'Research data'!C24</f>
         <v>part_load_efficiency_penalty</v>
       </c>
-      <c r="D39" s="207"/>
-      <c r="E39" s="207"/>
-      <c r="F39" s="207"/>
-      <c r="G39" s="207"/>
-      <c r="H39" s="207"/>
-      <c r="I39" s="207"/>
-      <c r="J39" s="208"/>
-      <c r="K39" s="216"/>
+      <c r="D39" s="206"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="206"/>
+      <c r="H39" s="206"/>
+      <c r="I39" s="206"/>
+      <c r="J39" s="207"/>
+      <c r="K39" s="215"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="44"/>
-      <c r="C40" s="209" t="str">
+      <c r="C40" s="208" t="str">
         <f>'Research data'!C25</f>
         <v>part_load_operating_point</v>
       </c>
-      <c r="D40" s="207"/>
-      <c r="E40" s="207"/>
-      <c r="F40" s="207"/>
-      <c r="G40" s="207"/>
-      <c r="H40" s="207"/>
-      <c r="I40" s="207"/>
-      <c r="J40" s="208"/>
-      <c r="K40" s="216"/>
+      <c r="D40" s="206"/>
+      <c r="E40" s="206"/>
+      <c r="F40" s="206"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="206"/>
+      <c r="I40" s="206"/>
+      <c r="J40" s="207"/>
+      <c r="K40" s="215"/>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="44"/>
-      <c r="C41" s="209" t="str">
+      <c r="C41" s="208" t="str">
         <f>'Research data'!C26</f>
         <v>electricity_output_capacity</v>
       </c>
-      <c r="D41" s="207"/>
-      <c r="E41" s="207"/>
-      <c r="F41" s="207"/>
-      <c r="G41" s="207"/>
-      <c r="H41" s="207"/>
-      <c r="I41" s="207"/>
-      <c r="J41" s="208"/>
-      <c r="K41" s="216"/>
+      <c r="D41" s="206"/>
+      <c r="E41" s="206"/>
+      <c r="F41" s="206"/>
+      <c r="G41" s="206"/>
+      <c r="H41" s="206"/>
+      <c r="I41" s="206"/>
+      <c r="J41" s="207"/>
+      <c r="K41" s="215"/>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="44"/>
-      <c r="C42" s="209" t="e">
+      <c r="C42" s="208" t="e">
         <f>'Research data'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D42" s="207"/>
-      <c r="E42" s="207"/>
-      <c r="F42" s="207"/>
-      <c r="G42" s="207"/>
-      <c r="H42" s="207"/>
-      <c r="I42" s="207"/>
-      <c r="J42" s="208"/>
-      <c r="K42" s="216"/>
+      <c r="D42" s="206"/>
+      <c r="E42" s="206"/>
+      <c r="F42" s="206"/>
+      <c r="G42" s="206"/>
+      <c r="H42" s="206"/>
+      <c r="I42" s="206"/>
+      <c r="J42" s="207"/>
+      <c r="K42" s="215"/>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="44"/>
-      <c r="C43" s="209" t="e">
+      <c r="C43" s="208" t="e">
         <f>'Research data'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D43" s="207"/>
-      <c r="E43" s="207"/>
-      <c r="F43" s="207"/>
-      <c r="G43" s="207"/>
-      <c r="H43" s="207"/>
-      <c r="I43" s="207"/>
-      <c r="J43" s="208"/>
-      <c r="K43" s="216"/>
+      <c r="D43" s="206"/>
+      <c r="E43" s="206"/>
+      <c r="F43" s="206"/>
+      <c r="G43" s="206"/>
+      <c r="H43" s="206"/>
+      <c r="I43" s="206"/>
+      <c r="J43" s="207"/>
+      <c r="K43" s="215"/>
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="44"/>
-      <c r="C44" s="209" t="e">
+      <c r="C44" s="208" t="e">
         <f>'Research data'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D44" s="207"/>
-      <c r="E44" s="207"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="207"/>
-      <c r="H44" s="207"/>
-      <c r="I44" s="207"/>
-      <c r="J44" s="208"/>
-      <c r="K44" s="216"/>
+      <c r="D44" s="206"/>
+      <c r="E44" s="206"/>
+      <c r="F44" s="206"/>
+      <c r="G44" s="206"/>
+      <c r="H44" s="206"/>
+      <c r="I44" s="206"/>
+      <c r="J44" s="207"/>
+      <c r="K44" s="215"/>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" s="44"/>
-      <c r="C45" s="209" t="e">
+      <c r="C45" s="208" t="e">
         <f>'Research data'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D45" s="207"/>
-      <c r="E45" s="207"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="207"/>
-      <c r="H45" s="207"/>
-      <c r="I45" s="207"/>
-      <c r="J45" s="208"/>
-      <c r="K45" s="216"/>
+      <c r="D45" s="206"/>
+      <c r="E45" s="206"/>
+      <c r="F45" s="206"/>
+      <c r="G45" s="206"/>
+      <c r="H45" s="206"/>
+      <c r="I45" s="206"/>
+      <c r="J45" s="207"/>
+      <c r="K45" s="215"/>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="44"/>
-      <c r="C46" s="209" t="str">
+      <c r="C46" s="208" t="str">
         <f>Dashboard!C34</f>
         <v>initial_investment</v>
       </c>
-      <c r="D46" s="207"/>
-      <c r="E46" s="207"/>
-      <c r="F46" s="207"/>
-      <c r="G46" s="207"/>
-      <c r="H46" s="207"/>
-      <c r="I46" s="207"/>
-      <c r="J46" s="208"/>
-      <c r="K46" s="216"/>
+      <c r="D46" s="206"/>
+      <c r="E46" s="206"/>
+      <c r="F46" s="206"/>
+      <c r="G46" s="206"/>
+      <c r="H46" s="206"/>
+      <c r="I46" s="206"/>
+      <c r="J46" s="207"/>
+      <c r="K46" s="215"/>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="44"/>
-      <c r="C47" s="209" t="s">
+      <c r="C47" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="207"/>
-      <c r="E47" s="207"/>
-      <c r="F47" s="207"/>
-      <c r="G47" s="207"/>
-      <c r="H47" s="207"/>
-      <c r="I47" s="207"/>
-      <c r="J47" s="208"/>
-      <c r="K47" s="216"/>
+      <c r="D47" s="206"/>
+      <c r="E47" s="206"/>
+      <c r="F47" s="206"/>
+      <c r="G47" s="206"/>
+      <c r="H47" s="206"/>
+      <c r="I47" s="206"/>
+      <c r="J47" s="207"/>
+      <c r="K47" s="215"/>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="44"/>
-      <c r="C48" s="209" t="str">
+      <c r="C48" s="208" t="str">
         <f>Dashboard!C38</f>
         <v>fixed_operation_and_maintenance_costs_per_year</v>
       </c>
-      <c r="D48" s="207"/>
-      <c r="E48" s="207"/>
-      <c r="F48" s="207"/>
-      <c r="G48" s="207"/>
-      <c r="H48" s="207"/>
-      <c r="I48" s="207"/>
-      <c r="J48" s="208"/>
-      <c r="K48" s="216"/>
+      <c r="D48" s="206"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="206"/>
+      <c r="G48" s="206"/>
+      <c r="H48" s="206"/>
+      <c r="I48" s="206"/>
+      <c r="J48" s="207"/>
+      <c r="K48" s="215"/>
     </row>
     <row r="49" spans="1:11">
       <c r="B49" s="44"/>
-      <c r="C49" s="209" t="str">
+      <c r="C49" s="208" t="str">
         <f>Dashboard!C39</f>
         <v>variable_operation_and_maintenance_costs_per_full_load_hour</v>
       </c>
-      <c r="D49" s="207"/>
-      <c r="E49" s="207"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="207"/>
-      <c r="H49" s="207"/>
-      <c r="I49" s="207"/>
-      <c r="J49" s="208"/>
-      <c r="K49" s="216"/>
+      <c r="D49" s="206"/>
+      <c r="E49" s="206"/>
+      <c r="F49" s="206"/>
+      <c r="G49" s="206"/>
+      <c r="H49" s="206"/>
+      <c r="I49" s="206"/>
+      <c r="J49" s="207"/>
+      <c r="K49" s="215"/>
     </row>
     <row r="50" spans="1:11">
       <c r="B50" s="44"/>
-      <c r="C50" s="209" t="str">
+      <c r="C50" s="208" t="str">
         <f>Dashboard!C40</f>
         <v>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</v>
       </c>
-      <c r="D50" s="207"/>
-      <c r="E50" s="207"/>
-      <c r="F50" s="207"/>
-      <c r="G50" s="207"/>
-      <c r="H50" s="207"/>
-      <c r="I50" s="207"/>
-      <c r="J50" s="208"/>
-      <c r="K50" s="216"/>
+      <c r="D50" s="206"/>
+      <c r="E50" s="206"/>
+      <c r="F50" s="206"/>
+      <c r="G50" s="206"/>
+      <c r="H50" s="206"/>
+      <c r="I50" s="206"/>
+      <c r="J50" s="207"/>
+      <c r="K50" s="215"/>
     </row>
     <row r="51" spans="1:11">
       <c r="B51" s="44"/>
-      <c r="C51" s="209" t="str">
+      <c r="C51" s="208" t="str">
         <f>Dashboard!C41</f>
         <v>wacc</v>
       </c>
-      <c r="D51" s="207"/>
-      <c r="E51" s="207"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="207"/>
-      <c r="H51" s="207"/>
-      <c r="I51" s="207"/>
-      <c r="J51" s="208"/>
-      <c r="K51" s="216"/>
+      <c r="D51" s="206"/>
+      <c r="E51" s="206"/>
+      <c r="F51" s="206"/>
+      <c r="G51" s="206"/>
+      <c r="H51" s="206"/>
+      <c r="I51" s="206"/>
+      <c r="J51" s="207"/>
+      <c r="K51" s="215"/>
     </row>
     <row r="52" spans="1:11">
       <c r="B52" s="44"/>
-      <c r="C52" s="209" t="str">
+      <c r="C52" s="208" t="str">
         <f>Dashboard!C45</f>
         <v>Other</v>
       </c>
-      <c r="D52" s="207"/>
-      <c r="E52" s="207"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="207"/>
-      <c r="H52" s="207"/>
-      <c r="I52" s="207"/>
-      <c r="J52" s="208"/>
-      <c r="K52" s="216"/>
+      <c r="D52" s="206"/>
+      <c r="E52" s="206"/>
+      <c r="F52" s="206"/>
+      <c r="G52" s="206"/>
+      <c r="H52" s="206"/>
+      <c r="I52" s="206"/>
+      <c r="J52" s="207"/>
+      <c r="K52" s="215"/>
     </row>
     <row r="53" spans="1:11">
       <c r="B53" s="44"/>
-      <c r="C53" s="209" t="str">
+      <c r="C53" s="208" t="str">
         <f>Dashboard!C46</f>
         <v>land_use_per_unit</v>
       </c>
-      <c r="D53" s="207"/>
-      <c r="E53" s="207"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="207"/>
-      <c r="H53" s="207"/>
-      <c r="I53" s="207"/>
-      <c r="J53" s="208"/>
-      <c r="K53" s="216"/>
+      <c r="D53" s="206"/>
+      <c r="E53" s="206"/>
+      <c r="F53" s="206"/>
+      <c r="G53" s="206"/>
+      <c r="H53" s="206"/>
+      <c r="I53" s="206"/>
+      <c r="J53" s="207"/>
+      <c r="K53" s="215"/>
     </row>
     <row r="54" spans="1:11">
       <c r="B54" s="44"/>
-      <c r="C54" s="209" t="str">
+      <c r="C54" s="208" t="str">
         <f>Dashboard!C47</f>
         <v>construction_time</v>
       </c>
-      <c r="D54" s="207"/>
-      <c r="E54" s="207"/>
-      <c r="F54" s="207"/>
-      <c r="G54" s="207"/>
-      <c r="H54" s="207"/>
-      <c r="I54" s="207"/>
-      <c r="J54" s="208"/>
-      <c r="K54" s="216"/>
+      <c r="D54" s="206"/>
+      <c r="E54" s="206"/>
+      <c r="F54" s="206"/>
+      <c r="G54" s="206"/>
+      <c r="H54" s="206"/>
+      <c r="I54" s="206"/>
+      <c r="J54" s="207"/>
+      <c r="K54" s="215"/>
     </row>
     <row r="55" spans="1:11">
       <c r="B55" s="44"/>
-      <c r="C55" s="209" t="str">
+      <c r="C55" s="208" t="str">
         <f>Dashboard!C48</f>
         <v>technical_lifetime</v>
       </c>
-      <c r="D55" s="207"/>
-      <c r="E55" s="207"/>
-      <c r="F55" s="207"/>
-      <c r="G55" s="207"/>
-      <c r="H55" s="207"/>
-      <c r="I55" s="207"/>
-      <c r="J55" s="208"/>
-      <c r="K55" s="216"/>
+      <c r="D55" s="206"/>
+      <c r="E55" s="206"/>
+      <c r="F55" s="206"/>
+      <c r="G55" s="206"/>
+      <c r="H55" s="206"/>
+      <c r="I55" s="206"/>
+      <c r="J55" s="207"/>
+      <c r="K55" s="215"/>
     </row>
     <row r="56" spans="1:11">
       <c r="B56" s="44"/>
-      <c r="C56" s="209" t="str">
+      <c r="C56" s="208" t="str">
         <f>Dashboard!C49</f>
         <v>free_co2_factor</v>
       </c>
-      <c r="D56" s="207"/>
-      <c r="E56" s="207"/>
-      <c r="F56" s="207"/>
-      <c r="G56" s="207"/>
-      <c r="H56" s="207"/>
-      <c r="I56" s="207"/>
-      <c r="J56" s="208"/>
-      <c r="K56" s="216"/>
+      <c r="D56" s="206"/>
+      <c r="E56" s="206"/>
+      <c r="F56" s="206"/>
+      <c r="G56" s="206"/>
+      <c r="H56" s="206"/>
+      <c r="I56" s="206"/>
+      <c r="J56" s="207"/>
+      <c r="K56" s="215"/>
     </row>
     <row r="57" spans="1:11">
       <c r="B57" s="44"/>
-      <c r="C57" s="209" t="str">
+      <c r="C57" s="208" t="str">
         <f>Dashboard!C50</f>
         <v>hours_prep_nl</v>
       </c>
-      <c r="D57" s="207"/>
-      <c r="E57" s="207"/>
-      <c r="F57" s="207"/>
-      <c r="G57" s="207"/>
-      <c r="H57" s="207"/>
-      <c r="I57" s="207"/>
-      <c r="J57" s="208"/>
-      <c r="K57" s="216"/>
+      <c r="D57" s="206"/>
+      <c r="E57" s="206"/>
+      <c r="F57" s="206"/>
+      <c r="G57" s="206"/>
+      <c r="H57" s="206"/>
+      <c r="I57" s="206"/>
+      <c r="J57" s="207"/>
+      <c r="K57" s="215"/>
     </row>
     <row r="58" spans="1:11">
       <c r="B58" s="44"/>
-      <c r="C58" s="209" t="str">
+      <c r="C58" s="208" t="str">
         <f>Dashboard!C51</f>
         <v>hours_prod_nl</v>
       </c>
-      <c r="D58" s="207"/>
-      <c r="E58" s="207"/>
-      <c r="F58" s="207"/>
-      <c r="G58" s="207"/>
-      <c r="H58" s="207"/>
-      <c r="I58" s="207"/>
-      <c r="J58" s="208"/>
-      <c r="K58" s="216"/>
+      <c r="D58" s="206"/>
+      <c r="E58" s="206"/>
+      <c r="F58" s="206"/>
+      <c r="G58" s="206"/>
+      <c r="H58" s="206"/>
+      <c r="I58" s="206"/>
+      <c r="J58" s="207"/>
+      <c r="K58" s="215"/>
     </row>
     <row r="59" spans="1:11">
       <c r="B59" s="44"/>
-      <c r="C59" s="209" t="str">
+      <c r="C59" s="208" t="str">
         <f>Dashboard!C52</f>
         <v>hours_place_nl</v>
       </c>
-      <c r="D59" s="207"/>
-      <c r="E59" s="207"/>
-      <c r="F59" s="207"/>
-      <c r="G59" s="207"/>
-      <c r="H59" s="207"/>
-      <c r="I59" s="207"/>
-      <c r="J59" s="208"/>
-      <c r="K59" s="216"/>
+      <c r="D59" s="206"/>
+      <c r="E59" s="206"/>
+      <c r="F59" s="206"/>
+      <c r="G59" s="206"/>
+      <c r="H59" s="206"/>
+      <c r="I59" s="206"/>
+      <c r="J59" s="207"/>
+      <c r="K59" s="215"/>
     </row>
     <row r="60" spans="1:11">
       <c r="B60" s="44"/>
-      <c r="C60" s="209" t="str">
+      <c r="C60" s="208" t="str">
         <f>Dashboard!C53</f>
         <v>hours_maint_nl</v>
       </c>
-      <c r="D60" s="207"/>
-      <c r="E60" s="207" t="str">
+      <c r="D60" s="206"/>
+      <c r="E60" s="206" t="str">
         <f>IF(ISNUMBER('Research data'!#REF!),'Research data'!#REF!,"")</f>
         <v/>
       </c>
-      <c r="F60" s="207" t="str">
+      <c r="F60" s="206" t="str">
         <f>IF(ISNUMBER('Research data'!H1),'Research data'!H1,"")</f>
         <v/>
       </c>
-      <c r="G60" s="207" t="str">
+      <c r="G60" s="206" t="str">
         <f>IF(ISNUMBER('Research data'!#REF!),'Research data'!#REF!,"")</f>
         <v/>
       </c>
-      <c r="H60" s="207" t="str">
+      <c r="H60" s="206" t="str">
         <f>IF(ISNUMBER('Research data'!I1),'Research data'!I1,"")</f>
         <v/>
       </c>
-      <c r="I60" s="207"/>
-      <c r="J60" s="208"/>
-      <c r="K60" s="216"/>
+      <c r="I60" s="206"/>
+      <c r="J60" s="207"/>
+      <c r="K60" s="215"/>
     </row>
     <row r="61" spans="1:11">
       <c r="B61" s="44"/>
-      <c r="C61" s="202"/>
+      <c r="C61" s="201"/>
       <c r="D61" s="47"/>
       <c r="E61" s="47" t="str">
         <f>IF(ISNUMBER('Research data'!#REF!),'Research data'!#REF!,"")</f>
@@ -7114,7 +7063,7 @@
     <row r="63" spans="1:11">
       <c r="A63" s="102"/>
       <c r="B63" s="103"/>
-      <c r="C63" s="202"/>
+      <c r="C63" s="201"/>
       <c r="D63" s="138"/>
       <c r="E63" s="138"/>
       <c r="F63" s="138"/>
@@ -7127,7 +7076,7 @@
     <row r="64" spans="1:11" ht="17" thickBot="1">
       <c r="A64" s="102"/>
       <c r="B64" s="139"/>
-      <c r="C64" s="204"/>
+      <c r="C64" s="203"/>
       <c r="D64" s="140"/>
       <c r="E64" s="140"/>
       <c r="F64" s="140"/>
@@ -12271,7 +12220,7 @@
       <c r="B226" s="127"/>
       <c r="C226" s="128"/>
       <c r="D226" s="145" t="str">
-        <f>'Research data'!C44</f>
+        <f>'Research data'!C43</f>
         <v>technical_lifetime</v>
       </c>
       <c r="E226" s="130">
@@ -13537,10 +13486,9 @@
         <v>191</v>
       </c>
       <c r="D280" s="147">
-        <f>'[2]Research data'!C222</f>
         <v>0</v>
       </c>
-      <c r="E280" s="221">
+      <c r="E280" s="220">
         <f>E284*E285</f>
         <v>50713.749060856499</v>
       </c>
@@ -13592,7 +13540,7 @@
       <c r="D283" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="E283" s="222">
+      <c r="E283" s="221">
         <f>E282/1.21</f>
         <v>471.07438016528926</v>
       </c>
@@ -13610,7 +13558,7 @@
       <c r="D284" s="128" t="s">
         <v>195</v>
       </c>
-      <c r="E284" s="223">
+      <c r="E284" s="222">
         <f>E283/E281</f>
         <v>2.3553719008264462</v>
       </c>
@@ -13628,7 +13576,7 @@
       <c r="D285" s="128" t="s">
         <v>197</v>
       </c>
-      <c r="E285" s="222">
+      <c r="E285" s="221">
         <f>E315</f>
         <v>21531.100478468899</v>
       </c>
@@ -13646,7 +13594,7 @@
       <c r="D286" s="128" t="s">
         <v>199</v>
       </c>
-      <c r="E286" s="222">
+      <c r="E286" s="221">
         <f>E280*E$22</f>
         <v>0</v>
       </c>
@@ -13662,7 +13610,7 @@
       <c r="B287" s="127"/>
       <c r="C287" s="128"/>
       <c r="D287" s="128"/>
-      <c r="E287" s="222"/>
+      <c r="E287" s="221"/>
       <c r="F287" s="128"/>
       <c r="G287" s="128"/>
       <c r="H287" s="128"/>
@@ -13673,7 +13621,7 @@
       <c r="B288" s="127"/>
       <c r="C288" s="128"/>
       <c r="D288" s="128"/>
-      <c r="E288" s="222"/>
+      <c r="E288" s="221"/>
       <c r="F288" s="128"/>
       <c r="G288" s="128"/>
       <c r="H288" s="128"/>
@@ -13771,10 +13719,9 @@
       <c r="B294" s="127"/>
       <c r="C294" s="128"/>
       <c r="D294" s="147">
-        <f>'[2]Research data'!C269</f>
         <v>0</v>
       </c>
-      <c r="E294" s="225">
+      <c r="E294" s="224">
         <f>(E293/3600000)</f>
         <v>9.2888888888888882E-3</v>
       </c>
@@ -13790,7 +13737,7 @@
       <c r="B295" s="127"/>
       <c r="C295" s="128"/>
       <c r="D295" s="128"/>
-      <c r="E295" s="222"/>
+      <c r="E295" s="221"/>
       <c r="F295" s="128"/>
       <c r="G295" s="128"/>
       <c r="H295" s="128"/>
@@ -13801,7 +13748,7 @@
       <c r="B296" s="127"/>
       <c r="C296" s="128"/>
       <c r="D296" s="128"/>
-      <c r="E296" s="222"/>
+      <c r="E296" s="221"/>
       <c r="F296" s="128"/>
       <c r="G296" s="128"/>
       <c r="H296" s="128"/>
@@ -13812,7 +13759,7 @@
       <c r="B297" s="127"/>
       <c r="C297" s="128"/>
       <c r="D297" s="128"/>
-      <c r="E297" s="222"/>
+      <c r="E297" s="221"/>
       <c r="F297" s="128"/>
       <c r="G297" s="128"/>
       <c r="H297" s="128"/>
@@ -13823,7 +13770,7 @@
       <c r="B298" s="127"/>
       <c r="C298" s="128"/>
       <c r="D298" s="128"/>
-      <c r="E298" s="222"/>
+      <c r="E298" s="221"/>
       <c r="F298" s="128"/>
       <c r="G298" s="128"/>
       <c r="H298" s="128"/>
@@ -13834,7 +13781,7 @@
       <c r="B299" s="127"/>
       <c r="C299" s="128"/>
       <c r="D299" s="128"/>
-      <c r="E299" s="222"/>
+      <c r="E299" s="221"/>
       <c r="F299" s="128"/>
       <c r="G299" s="128"/>
       <c r="H299" s="128"/>
@@ -13845,7 +13792,7 @@
       <c r="B300" s="127"/>
       <c r="C300" s="128"/>
       <c r="D300" s="128"/>
-      <c r="E300" s="222"/>
+      <c r="E300" s="221"/>
       <c r="F300" s="128"/>
       <c r="G300" s="128"/>
       <c r="H300" s="128"/>
@@ -13856,7 +13803,7 @@
       <c r="B301" s="127"/>
       <c r="C301" s="128"/>
       <c r="D301" s="128"/>
-      <c r="E301" s="222"/>
+      <c r="E301" s="221"/>
       <c r="F301" s="128"/>
       <c r="G301" s="128"/>
       <c r="H301" s="128"/>
@@ -13867,7 +13814,7 @@
       <c r="B302" s="127"/>
       <c r="C302" s="128"/>
       <c r="D302" s="128"/>
-      <c r="E302" s="222"/>
+      <c r="E302" s="221"/>
       <c r="F302" s="128"/>
       <c r="G302" s="128"/>
       <c r="H302" s="128"/>
@@ -13878,7 +13825,7 @@
       <c r="B303" s="127"/>
       <c r="C303" s="128"/>
       <c r="D303" s="128"/>
-      <c r="E303" s="222"/>
+      <c r="E303" s="221"/>
       <c r="F303" s="128"/>
       <c r="G303" s="128"/>
       <c r="H303" s="128"/>
@@ -13889,7 +13836,7 @@
       <c r="B304" s="127"/>
       <c r="C304" s="128"/>
       <c r="D304" s="128"/>
-      <c r="E304" s="222"/>
+      <c r="E304" s="221"/>
       <c r="F304" s="128"/>
       <c r="G304" s="128"/>
       <c r="H304" s="128"/>
@@ -13900,7 +13847,7 @@
       <c r="B305" s="127"/>
       <c r="C305" s="128"/>
       <c r="D305" s="128"/>
-      <c r="E305" s="222"/>
+      <c r="E305" s="221"/>
       <c r="F305" s="128"/>
       <c r="G305" s="128"/>
       <c r="H305" s="128"/>
@@ -13911,7 +13858,7 @@
       <c r="B306" s="127"/>
       <c r="C306" s="128"/>
       <c r="D306" s="128"/>
-      <c r="E306" s="222"/>
+      <c r="E306" s="221"/>
       <c r="F306" s="128"/>
       <c r="G306" s="128"/>
       <c r="H306" s="128"/>
@@ -13922,7 +13869,7 @@
       <c r="B307" s="127"/>
       <c r="C307" s="128"/>
       <c r="D307" s="128"/>
-      <c r="E307" s="222"/>
+      <c r="E307" s="221"/>
       <c r="F307" s="128"/>
       <c r="G307" s="128"/>
       <c r="H307" s="128"/>
@@ -13933,7 +13880,7 @@
       <c r="B308" s="127"/>
       <c r="C308" s="128"/>
       <c r="D308" s="128"/>
-      <c r="E308" s="222"/>
+      <c r="E308" s="221"/>
       <c r="F308" s="128"/>
       <c r="G308" s="128"/>
       <c r="H308" s="128"/>
@@ -13944,7 +13891,7 @@
       <c r="B309" s="127"/>
       <c r="C309" s="128"/>
       <c r="D309" s="128"/>
-      <c r="E309" s="222"/>
+      <c r="E309" s="221"/>
       <c r="F309" s="128"/>
       <c r="G309" s="128"/>
       <c r="H309" s="128"/>
@@ -13957,10 +13904,9 @@
         <v>201</v>
       </c>
       <c r="D310" s="147">
-        <f>'[2]Research data'!C222</f>
         <v>0</v>
       </c>
-      <c r="E310" s="221">
+      <c r="E310" s="220">
         <f>E314*E315</f>
         <v>60055.755466803741</v>
       </c>
@@ -14012,7 +13958,7 @@
       <c r="D313" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="E313" s="222">
+      <c r="E313" s="221">
         <f>E312/1.21</f>
         <v>334.71074380165288</v>
       </c>
@@ -14030,7 +13976,7 @@
       <c r="D314" s="128" t="s">
         <v>195</v>
       </c>
-      <c r="E314" s="223">
+      <c r="E314" s="222">
         <f>E313/E311</f>
         <v>2.7892561983471071</v>
       </c>
@@ -14048,7 +13994,7 @@
       <c r="D315" s="128" t="s">
         <v>197</v>
       </c>
-      <c r="E315" s="222">
+      <c r="E315" s="221">
         <f>E311/E325</f>
         <v>21531.100478468899</v>
       </c>
@@ -14066,7 +14012,7 @@
       <c r="D316" s="128" t="s">
         <v>199</v>
       </c>
-      <c r="E316" s="222">
+      <c r="E316" s="221">
         <f>E310*E$22</f>
         <v>0</v>
       </c>
@@ -14082,7 +14028,7 @@
       <c r="B317" s="127"/>
       <c r="C317" s="128"/>
       <c r="D317" s="128"/>
-      <c r="E317" s="222"/>
+      <c r="E317" s="221"/>
       <c r="F317" s="128"/>
       <c r="G317" s="128"/>
       <c r="H317" s="128"/>
@@ -14093,7 +14039,7 @@
       <c r="B318" s="127"/>
       <c r="C318" s="128"/>
       <c r="D318" s="128"/>
-      <c r="E318" s="222"/>
+      <c r="E318" s="221"/>
       <c r="F318" s="128"/>
       <c r="G318" s="128"/>
       <c r="H318" s="128"/>
@@ -14104,7 +14050,7 @@
       <c r="B319" s="127"/>
       <c r="C319" s="128"/>
       <c r="D319" s="128"/>
-      <c r="E319" s="222"/>
+      <c r="E319" s="221"/>
       <c r="F319" s="128"/>
       <c r="G319" s="128"/>
       <c r="H319" s="128"/>
@@ -14202,10 +14148,9 @@
       <c r="B325" s="127"/>
       <c r="C325" s="128"/>
       <c r="D325" s="147">
-        <f>'[2]Research data'!C300</f>
         <v>0</v>
       </c>
-      <c r="E325" s="225">
+      <c r="E325" s="224">
         <f>(E324/3600000)</f>
         <v>5.5733333333333329E-3</v>
       </c>
@@ -14221,7 +14166,7 @@
       <c r="B326" s="127"/>
       <c r="C326" s="128"/>
       <c r="D326" s="128"/>
-      <c r="E326" s="222"/>
+      <c r="E326" s="221"/>
       <c r="F326" s="128"/>
       <c r="G326" s="128"/>
       <c r="H326" s="128"/>
@@ -14232,7 +14177,7 @@
       <c r="B327" s="127"/>
       <c r="C327" s="128"/>
       <c r="D327" s="128"/>
-      <c r="E327" s="222"/>
+      <c r="E327" s="221"/>
       <c r="F327" s="128"/>
       <c r="G327" s="128"/>
       <c r="H327" s="128"/>
@@ -14243,7 +14188,7 @@
       <c r="B328" s="127"/>
       <c r="C328" s="128"/>
       <c r="D328" s="128"/>
-      <c r="E328" s="222"/>
+      <c r="E328" s="221"/>
       <c r="F328" s="128"/>
       <c r="G328" s="128"/>
       <c r="H328" s="128"/>
@@ -14254,7 +14199,7 @@
       <c r="B329" s="127"/>
       <c r="C329" s="128"/>
       <c r="D329" s="128"/>
-      <c r="E329" s="222"/>
+      <c r="E329" s="221"/>
       <c r="F329" s="128"/>
       <c r="G329" s="128"/>
       <c r="H329" s="128"/>
@@ -14265,7 +14210,7 @@
       <c r="B330" s="127"/>
       <c r="C330" s="128"/>
       <c r="D330" s="128"/>
-      <c r="E330" s="222"/>
+      <c r="E330" s="221"/>
       <c r="F330" s="128"/>
       <c r="G330" s="128"/>
       <c r="H330" s="128"/>
